--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\GitHub\dta-agricola\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7B99D-04E6-488C-8428-BE1B6CF6D7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23581048-E9DE-4345-9FD1-B1799B4A2BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="458" xr2:uid="{81E9D037-BE23-435E-B775-5A4C621A153A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="458" xr2:uid="{81E9D037-BE23-435E-B775-5A4C621A153A}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -633,288 +633,236 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,49 +1181,49 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.140625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="60.28515625" style="20" customWidth="1"/>
-    <col min="19" max="26" width="12.140625" style="17" customWidth="1"/>
-    <col min="27" max="16384" width="11.5703125" style="15"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.26953125" style="15" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="13" customWidth="1"/>
+    <col min="27" max="16384" width="11.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R1" s="66" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1309,25 +1257,25 @@
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="S2" s="1">
@@ -1355,1172 +1303,1161 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>526251106286</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>1211</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P3" s="9">
         <v>43872</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-    </row>
-    <row r="4" spans="1:26" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="22">
         <v>526251271378</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="23">
         <v>1211</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="26">
         <v>44603</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-    </row>
-    <row r="5" spans="1:26" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+    </row>
+    <row r="5" spans="1:26" s="20" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="22">
         <v>526251024489</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="23">
         <v>1211</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="26">
         <v>44603</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-    </row>
-    <row r="6" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="22">
         <v>526251452797</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="23">
         <v>1211</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="26">
         <v>44603</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-    </row>
-    <row r="7" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+    </row>
+    <row r="7" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="22">
         <v>526255917395</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="23">
         <v>1211</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="26">
         <v>44603</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-    </row>
-    <row r="8" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+    </row>
+    <row r="8" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="22">
         <v>526251193016</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="23">
         <v>1211</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="26">
         <v>44603</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-    </row>
-    <row r="9" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+    </row>
+    <row r="9" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="22">
         <v>526251342314</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="23">
         <v>1211</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="26">
         <v>44603</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
+    <row r="10" spans="1:26" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="45">
         <v>8</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="47">
         <v>526251201079</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="48">
         <v>1211</v>
       </c>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="O10" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="64">
+      <c r="P10" s="51">
         <v>44384</v>
       </c>
-      <c r="Q10" s="57" t="s">
+      <c r="Q10" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="65" t="s">
+      <c r="R10" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-    </row>
-    <row r="11" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+    </row>
+    <row r="11" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="31">
         <v>526251020232</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="32">
         <v>1312</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="47" t="s">
+      <c r="O11" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="35">
         <v>44646</v>
       </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-    </row>
-    <row r="12" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="R11" s="36"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+    </row>
+    <row r="12" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="29">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="37">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="32">
         <v>1211</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="50" t="s">
+      <c r="O12" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="35">
         <v>44646</v>
       </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="51" t="s">
+      <c r="Q12" s="34"/>
+      <c r="R12" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="43" t="s">
+      <c r="S12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="T12" s="43" t="s">
+      <c r="T12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="43" t="s">
+      <c r="U12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="43" t="s">
+      <c r="V12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="43" t="s">
+      <c r="W12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="X12" s="43" t="s">
+      <c r="X12" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Y12" s="52" t="s">
+      <c r="Y12" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="43" t="s">
+      <c r="Z12" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+    <row r="13" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="29">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="37">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="32">
         <v>1211</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="46" t="s">
+      <c r="M13" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="50" t="s">
+      <c r="O13" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="35">
         <v>44646</v>
       </c>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-    </row>
-    <row r="14" spans="1:26" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="Q13" s="34"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+    </row>
+    <row r="14" spans="1:26" s="29" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="29">
         <v>12</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="37">
         <v>526251259145</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="32">
         <v>1211</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="44" t="s">
+      <c r="J14" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="45" t="s">
+      <c r="K14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="46" t="s">
+      <c r="M14" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="47" t="s">
+      <c r="O14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="35">
         <v>44646</v>
       </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="54" t="s">
+      <c r="Q14" s="34"/>
+      <c r="R14" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="S14" s="55" t="s">
+      <c r="S14" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="T14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="U14" s="43" t="s">
+      <c r="U14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="V14" s="43" t="s">
+      <c r="V14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="W14" s="43" t="s">
+      <c r="W14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X14" s="43" t="s">
+      <c r="X14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="43" t="s">
+      <c r="Y14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" s="43" t="s">
+      <c r="Z14" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29">
         <v>13</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="37">
         <v>526251037317</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="32">
         <v>1312</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="35">
         <v>44646</v>
       </c>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="56" t="s">
+      <c r="Q15" s="34"/>
+      <c r="R15" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-    </row>
-    <row r="16" spans="1:26" s="39" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+    </row>
+    <row r="16" spans="1:26" s="29" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29">
         <v>14</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="37">
         <v>526251060168</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="32">
         <v>1211</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="35">
         <v>44762</v>
       </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="51" t="s">
+      <c r="Q16" s="34"/>
+      <c r="R16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-    </row>
-    <row r="17" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+    </row>
+    <row r="17" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <v>526251059200</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <v>1211</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="L17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="67" t="s">
+      <c r="M17" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="68" t="s">
+      <c r="O17" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="34">
+      <c r="P17" s="25">
         <v>44647</v>
       </c>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-    </row>
-    <row r="18" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="Q17" s="24"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+    </row>
+    <row r="18" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="55">
         <v>526251020790</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="23">
         <v>1211</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="67" t="s">
+      <c r="L18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="67" t="s">
+      <c r="M18" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="68" t="s">
+      <c r="O18" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="34">
+      <c r="P18" s="25">
         <v>44647</v>
       </c>
-      <c r="R18" s="69"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="R18" s="54"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="17">
         <v>17</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="18">
         <v>526251020642</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>1211</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="18">
         <v>526251020596</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="13">
         <v>1211</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="56">
         <v>526251579804</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="13">
         <v>1211</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-    </row>
-    <row r="23" spans="1:26" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="81" t="s">
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="R21" s="59"/>
+    </row>
+    <row r="23" spans="1:26" s="60" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="81" t="s">
+      <c r="I23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="81" t="s">
+      <c r="J23" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="K23" s="78" t="s">
+      <c r="K23" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="77" t="s">
+      <c r="L23" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="M23" s="79" t="s">
+      <c r="M23" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="N23" s="77" t="s">
+      <c r="N23" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="O23" s="94" t="s">
+      <c r="O23" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="80"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2534,40 +2471,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F66C39-03D2-4899-ADCF-3C8A8410502E}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="15" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.140625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="60.28515625" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="11.5703125" style="15"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="33.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.26953125" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="11.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R1" s="38" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2601,82 +2538,79 @@
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+    <row r="3" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="26">
         <v>44603</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="27" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,332 +2625,330 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="83" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="83"/>
-    <col min="5" max="5" width="36.85546875" style="83" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="83"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="91">
+      <c r="B2" s="73">
         <v>526251106286</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="65">
         <v>32845128</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="65">
         <v>18</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="92">
+      <c r="B3" s="74">
         <v>526251024489</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="68">
         <v>32845129</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="68">
         <v>18</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="73">
         <v>526251531996</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="65">
         <v>32845130</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="65">
         <v>18</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="74">
         <v>526258372598</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="68">
         <v>32845131</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="68">
         <v>18</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="73">
         <v>526251059200</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="65">
         <v>32845132</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="65">
         <v>18</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="74">
         <v>526251259145</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="68">
         <v>32845134</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="68">
         <v>18</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="73">
         <v>526255917395</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="65">
         <v>32845135</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="65">
         <v>18</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="74">
         <v>526251271378</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="68">
         <v>32848029</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="68">
         <v>18</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="73">
         <v>526251193016</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="65">
         <v>32848031</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="65">
         <v>18</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="74">
         <v>526251060168</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="68">
         <v>32848045</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="68">
         <v>18</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="73">
         <v>526251037317</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="65">
         <v>32848094</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="65">
         <v>32</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="74">
         <v>526251452797</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="68">
         <v>32848096</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="68">
         <v>32</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="73">
         <v>526251342314</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="65">
         <v>32848097</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="65">
         <v>32</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="92">
+      <c r="B15" s="74">
         <v>526251579804</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="68">
         <v>32848098</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="68">
         <v>32</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="73">
         <v>526251201079</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="65">
         <v>32848099</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="65">
         <v>32</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="74">
         <v>526251020232</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="86" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="73">
         <v>526251020790</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="65" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="92">
+      <c r="B20" s="74">
         <v>526251020642</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="86" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="91">
+      <c r="B21" s="73">
         <v>526251020596</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="65" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB3C8C-3475-4638-88B9-9C4EFD788FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" tabRatio="458"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -237,9 +243,6 @@
     <t>3 2</t>
   </si>
   <si>
-    <t>{0, 3, 2, 12, 11, 1, 52, 625, 1201079}</t>
-  </si>
-  <si>
     <t>Pv66 v0.2.4.220529 A</t>
   </si>
   <si>
@@ -505,19 +508,16 @@
   </si>
   <si>
     <t>ECHEMENDIA NARANJO MIRIAM ESTHER</t>
+  </si>
+  <si>
+    <t>{0, 3, 2, 12, 11, 0, 52, 625, 1201079}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +554,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,151 +583,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,19 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,198 +635,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -987,253 +657,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1263,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1287,41 +718,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1332,9 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1371,9 +787,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1410,9 +823,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1422,10 +832,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1434,19 +844,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1455,11 +862,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1473,10 +877,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1488,7 +892,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1497,13 +901,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1518,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1527,65 +928,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
-    <cellStyle name="Coma" xfId="6" builtinId="3"/>
-    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
-    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21"/>
-    <cellStyle name="Nota" xfId="11" builtinId="10"/>
-    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
-    <cellStyle name="Título" xfId="14" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
-    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
-    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
-    <cellStyle name="Total" xfId="22" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
-    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
-    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
-    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
-    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
-    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
-    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
-    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
-    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1843,59 +1204,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.18095238095238" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.4571428571429" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1809523809524" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.81904761904762" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.54285714285714" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.45714285714286" style="12" customWidth="1"/>
-    <col min="9" max="9" width="31.2666666666667" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.4571428571429" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.8190476190476" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.4571428571429" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.2666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.8190476190476" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.1809523809524" style="12" customWidth="1"/>
-    <col min="16" max="17" width="19.1809523809524" style="12" customWidth="1"/>
-    <col min="18" max="18" width="60.2666666666667" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.1809523809524" style="36" customWidth="1"/>
-    <col min="27" max="16384" width="11.5428571428571" style="12"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.26953125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="12" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.26953125" style="13" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="31" customWidth="1"/>
+    <col min="27" max="16384" width="11.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="18:26">
-      <c r="R1" s="14" t="s">
+    <row r="1" spans="1:26">
+      <c r="R1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:26">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1975,55 +1335,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="30" customFormat="1" spans="1:26">
-      <c r="A3" s="37">
+    <row r="3" spans="1:26" s="11" customFormat="1">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <v>526251106286</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="35">
         <v>1211</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="40" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P3" s="58">
         <v>43872</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="85" t="s">
+      <c r="R3" s="76" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="9"/>
@@ -2035,7 +1395,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" s="10" customFormat="1" ht="30" spans="1:26">
+    <row r="4" spans="1:26" s="10" customFormat="1" ht="29">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2064,7 +1424,7 @@
       <c r="J4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -2076,16 +1436,16 @@
       <c r="N4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="24">
         <v>44603</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="S4" s="17"/>
@@ -2097,7 +1457,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" s="10" customFormat="1" ht="30" spans="1:26">
+    <row r="5" spans="1:26" s="10" customFormat="1" ht="29">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2126,7 +1486,7 @@
       <c r="J5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -2138,16 +1498,16 @@
       <c r="N5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="24">
         <v>44603</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="S5" s="17"/>
@@ -2159,7 +1519,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" s="10" customFormat="1" spans="1:26">
+    <row r="6" spans="1:26" s="10" customFormat="1">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2188,7 +1548,7 @@
       <c r="J6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -2200,16 +1560,16 @@
       <c r="N6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="24">
         <v>44603</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="25" t="s">
         <v>49</v>
       </c>
       <c r="S6" s="17"/>
@@ -2221,7 +1581,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:26">
+    <row r="7" spans="1:26" s="10" customFormat="1">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -2250,7 +1610,7 @@
       <c r="J7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -2262,16 +1622,16 @@
       <c r="N7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="24">
         <v>44603</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="25" t="s">
         <v>49</v>
       </c>
       <c r="S7" s="17"/>
@@ -2283,7 +1643,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:26">
+    <row r="8" spans="1:26" s="10" customFormat="1">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -2312,7 +1672,7 @@
       <c r="J8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="10" t="s">
@@ -2324,16 +1684,16 @@
       <c r="N8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="24">
         <v>44603</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="25" t="s">
         <v>49</v>
       </c>
       <c r="S8" s="17"/>
@@ -2345,7 +1705,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:18">
+    <row r="9" spans="1:26" s="10" customFormat="1">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -2376,7 +1736,7 @@
       <c r="J9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="59" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -2388,494 +1748,494 @@
       <c r="N9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="24">
         <v>44603</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" s="31" customFormat="1" spans="1:26">
-      <c r="A10" s="31">
+    <row r="10" spans="1:26" s="27" customFormat="1">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="37">
         <v>526251201079</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <v>1211</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="K10" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="M10" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="62">
+        <v>44384</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+    </row>
+    <row r="11" spans="1:26" s="28" customFormat="1">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="40">
+        <v>526251020232</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1312</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="69">
-        <v>44384</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-    </row>
-    <row r="11" s="32" customFormat="1" spans="1:26">
-      <c r="A11" s="32">
-        <v>9</v>
-      </c>
-      <c r="B11" s="44" t="s">
+      <c r="L11" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="64">
+        <v>44646</v>
+      </c>
+      <c r="R11" s="78"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+    </row>
+    <row r="12" spans="1:26" s="29" customFormat="1">
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="43">
+        <v>526251531996</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="44">
+        <v>1211</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="67">
+        <v>44646</v>
+      </c>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="U12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="V12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="W12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="X12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z12" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="29" customFormat="1">
+      <c r="A13" s="29">
+        <v>11</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="43">
+        <v>526258372598</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="44">
+        <v>1211</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="67">
+        <v>44646</v>
+      </c>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+    </row>
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
+      <c r="A14" s="28">
+        <v>12</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="46">
+        <v>526251259145</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1211</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="64">
+        <v>44646</v>
+      </c>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="S14" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="X14" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y14" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z14" s="41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="29" customFormat="1">
+      <c r="A15" s="29">
+        <v>13</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="43">
+        <v>526251037317</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="45">
-        <v>526251020232</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G15" s="44">
         <v>1312</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H15" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I15" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="M15" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="67">
+        <v>44646</v>
+      </c>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+    </row>
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
+      <c r="A16" s="28">
+        <v>14</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="46">
+        <v>526251060168</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1211</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" s="72">
-        <v>44646</v>
-      </c>
-      <c r="R11" s="87"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-    </row>
-    <row r="12" s="33" customFormat="1" spans="1:26">
-      <c r="A12" s="33">
-        <v>10</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="49">
-        <v>526251531996</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="50">
-        <v>1211</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="73" t="s">
+      <c r="L16" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" s="75">
-        <v>44646</v>
-      </c>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="U12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="V12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="W12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y12" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z12" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" s="33" customFormat="1" spans="1:26">
-      <c r="A13" s="33">
-        <v>11</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="49">
-        <v>526258372598</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1211</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="75">
-        <v>44646</v>
-      </c>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-    </row>
-    <row r="14" s="32" customFormat="1" ht="45" spans="1:26">
-      <c r="A14" s="32">
-        <v>12</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="52">
-        <v>526251259145</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="47">
-        <v>1211</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14" s="72">
-        <v>44646</v>
-      </c>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="S14" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="U14" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="W14" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="X14" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y14" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z14" s="46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" s="33" customFormat="1" spans="1:26">
-      <c r="A15" s="33">
-        <v>13</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="49">
-        <v>526251037317</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="50">
-        <v>1312</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="75">
-        <v>44646</v>
-      </c>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-    </row>
-    <row r="16" s="32" customFormat="1" ht="48" customHeight="1" spans="1:26">
-      <c r="A16" s="32">
-        <v>14</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="52">
-        <v>526251060168</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="47">
-        <v>1211</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="76" t="s">
+      <c r="O16" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="77" t="s">
+      <c r="P16" s="64">
+        <v>44762</v>
+      </c>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="72">
-        <v>44762</v>
-      </c>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:26">
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+    </row>
+    <row r="17" spans="1:26" s="10" customFormat="1">
       <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="16">
         <v>526251059200</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>21</v>
@@ -2885,31 +2245,31 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="66" t="s">
+      <c r="N17" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="O17" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <v>44647</v>
       </c>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="95"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -2919,14 +2279,14 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" s="10" customFormat="1" spans="1:26">
+    <row r="18" spans="1:26" s="10" customFormat="1">
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="54">
+      <c r="B18" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="48">
         <v>526251020790</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2943,30 +2303,30 @@
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="66" t="s">
+      <c r="L18" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="N18" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="O18" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" s="24">
+      <c r="P18" s="22">
         <v>44647</v>
       </c>
-      <c r="R18" s="95"/>
+      <c r="R18" s="85"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -2976,47 +2336,47 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="55">
+    <row r="19" spans="1:26">
+      <c r="A19" s="49">
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="51">
+        <v>526251020642</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1211</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="C19" s="57">
-        <v>526251020642</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="36">
-        <v>1211</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="1" spans="1:26">
-      <c r="A20" s="34">
+    <row r="20" spans="1:26" s="11" customFormat="1">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="59">
+      <c r="B20" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="53">
         <v>526251579804</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -3028,139 +2388,133 @@
       <c r="F20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="9">
         <v>1211</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="80" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-    </row>
-    <row r="22" s="35" customFormat="1" spans="2:26">
-      <c r="B22" s="61" t="s">
+      <c r="O20" s="72"/>
+      <c r="P20" s="73"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+    </row>
+    <row r="22" spans="1:26" s="30" customFormat="1">
+      <c r="B22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="35" t="s">
+      <c r="M22" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="M22" s="99" t="s">
+      <c r="N22" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O22" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="N22" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="O22" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="R22" s="97"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="R1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5428571428571" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.18095238095238" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.4571428571429" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.7238095238095" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1809523809524" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.81904761904762" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.5714285714286" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" style="12" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="39.2666666666667" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.4571428571429" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.7142857142857" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.8571428571429" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.8666666666667" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.8857142857143" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.4380952380952" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.8857142857143" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.4380952380952" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.8857142857143" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.4380952380952" style="12" customWidth="1"/>
-    <col min="20" max="21" width="19.1809523809524" style="12" customWidth="1"/>
-    <col min="22" max="22" width="60.2666666666667" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="11.5428571428571" style="12"/>
+    <col min="9" max="9" width="39.26953125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="20.7265625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="10.90625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="19.1796875" style="12" customWidth="1"/>
+    <col min="22" max="22" width="60.26953125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="11.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="22:22">
+    <row r="1" spans="1:30">
       <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:22">
+    <row r="2" spans="1:30" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -3198,25 +2552,25 @@
         <v>15</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>16</v>
@@ -3228,127 +2582,125 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" spans="1:22">
+    <row r="3" spans="1:30" s="10" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>145</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="26">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="24">
         <v>44603</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:30">
+      <c r="V3" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="11" customFormat="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="20">
         <v>526251020596</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="H4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="http://pprsar.com/cosme/commj_v2.php"/>
-    <hyperlink ref="I4" r:id="rId1" display="http://pprsar.com/cosme/commj_v2.php"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4571428571429" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.5428571428571" customWidth="1"/>
-    <col min="2" max="2" width="15.5428571428571" customWidth="1"/>
-    <col min="5" max="5" width="36.8190476190476" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3359,13 +2711,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3382,7 +2734,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3399,12 +2751,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3">
         <v>526251531996</v>
@@ -3416,12 +2768,12 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="6">
         <v>526258372598</v>
@@ -3433,12 +2785,12 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3">
         <v>526251059200</v>
@@ -3450,12 +2802,12 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6">
         <v>526251259145</v>
@@ -3467,7 +2819,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3484,7 +2836,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3501,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3518,12 +2870,12 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="6">
         <v>526251060168</v>
@@ -3535,12 +2887,12 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3">
         <v>526251037317</v>
@@ -3552,7 +2904,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3569,7 +2921,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3586,12 +2938,12 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6">
         <v>526251579804</v>
@@ -3603,7 +2955,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3620,12 +2972,12 @@
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6">
         <v>526251020232</v>
@@ -3633,23 +2985,23 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="3">
         <v>526251020790</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="6">
         <v>526251020642</v>
@@ -3657,22 +3009,21 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="3">
         <v>526251020596</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB3C8C-3475-4638-88B9-9C4EFD788FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396FBB9C-73F4-4C73-A344-6D3CA8343C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" tabRatio="458" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="168">
   <si>
     <t>Observaciones</t>
   </si>
@@ -483,12 +483,6 @@
     <t>8952020020633586696</t>
   </si>
   <si>
-    <t>25VAC</t>
-  </si>
-  <si>
-    <t>{2, 3, 7, 52, 625, 1020596}</t>
-  </si>
-  <si>
     <t>Edmundo</t>
   </si>
   <si>
@@ -511,13 +505,34 @@
   </si>
   <si>
     <t>{0, 3, 2, 12, 11, 0, 52, 625, 1201079}</t>
+  </si>
+  <si>
+    <t>8952020020633586662</t>
+  </si>
+  <si>
+    <t>CDT La Noria</t>
+  </si>
+  <si>
+    <t>{2, 3, 6, 52, 625, 102, 0266}</t>
+  </si>
+  <si>
+    <t>AG06+</t>
+  </si>
+  <si>
+    <t>Rodolfo</t>
+  </si>
+  <si>
+    <t>{2, 3, 7, 52, 625, 102, 0596}</t>
+  </si>
+  <si>
+    <t>[21.979798, -98.753810]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,8 +598,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -664,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -931,8 +968,31 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
@@ -1243,17 +1303,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -1787,7 +1847,7 @@
         <v>63</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>73</v>
@@ -2477,10 +2537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -2645,14 +2705,14 @@
       <c r="D4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>153</v>
+      <c r="E4" s="95" t="s">
+        <v>144</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>154</v>
+      <c r="G4" s="95" t="s">
+        <v>166</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>146</v>
@@ -2661,13 +2721,13 @@
         <v>147</v>
       </c>
       <c r="J4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="98" t="s">
         <v>155</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="9"/>
@@ -2679,18 +2739,58 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="99">
+        <v>3</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="20">
+        <v>526251020266</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="98" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{16519EE7-4051-4780-87AD-CED1BB134DEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
@@ -2698,7 +2798,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="5" max="5" width="36.81640625" customWidth="1"/>
   </cols>
@@ -2711,13 +2811,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2734,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2751,7 +2851,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2768,7 +2868,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2785,7 +2885,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2802,7 +2902,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2819,7 +2919,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2836,7 +2936,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2853,7 +2953,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2870,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2887,7 +2987,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2904,7 +3004,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2921,7 +3021,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2938,7 +3038,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2955,7 +3055,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2972,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2985,7 +3085,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2996,7 +3096,7 @@
         <v>526251020790</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3009,7 +3109,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3020,7 +3120,20 @@
         <v>526251020596</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="90" t="s">
         <v>161</v>
+      </c>
+      <c r="B22" s="91">
+        <v>526251020266</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396FBB9C-73F4-4C73-A344-6D3CA8343C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F04F9-F71A-43DA-880C-342A88543D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" tabRatio="458" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="491" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +614,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -666,13 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -815,12 +841,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -833,33 +853,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -887,12 +886,6 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -902,24 +895,9 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -932,33 +910,18 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -968,31 +931,97 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,11 +1301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1303,17 +1332,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -1418,11 +1447,11 @@
         <v>1211</v>
       </c>
       <c r="H3" s="35"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="46"/>
       <c r="J3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="47" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="32" t="s">
@@ -1434,16 +1463,16 @@
       <c r="N3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="58">
+      <c r="P3" s="49">
         <v>43872</v>
       </c>
       <c r="Q3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="60" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="9"/>
@@ -1484,7 +1513,7 @@
       <c r="J4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="50" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -1546,7 +1575,7 @@
       <c r="J5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="50" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="10" t="s">
@@ -1608,7 +1637,7 @@
       <c r="J6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="50" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="10" t="s">
@@ -1670,7 +1699,7 @@
       <c r="J7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="50" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -1732,7 +1761,7 @@
       <c r="J8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="50" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="10" t="s">
@@ -1796,7 +1825,7 @@
       <c r="J9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="50" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="10" t="s">
@@ -1852,7 +1881,7 @@
       <c r="J10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="51" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="27" t="s">
@@ -1861,16 +1890,16 @@
       <c r="M10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="61" t="s">
+      <c r="O10" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="62">
+      <c r="P10" s="53">
         <v>44384</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="77" t="s">
+      <c r="R10" s="61" t="s">
         <v>77</v>
       </c>
       <c r="S10" s="38"/>
@@ -1883,139 +1912,140 @@
       <c r="Z10" s="38"/>
     </row>
     <row r="11" spans="1:26" s="28" customFormat="1">
-      <c r="A11" s="28">
+      <c r="A11" s="82">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="97">
         <v>526251020232</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="80">
         <v>1312</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="63" t="s">
+      <c r="K11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="64" t="s">
+      <c r="O11" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="84">
         <v>44646</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
     </row>
     <row r="12" spans="1:26" s="29" customFormat="1">
       <c r="A12" s="29">
         <v>10</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="42">
         <v>1211</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="56">
         <v>44646</v>
       </c>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="79" t="s">
+      <c r="Q12" s="54"/>
+      <c r="R12" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="S12" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="44" t="s">
+      <c r="T12" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="V12" s="44" t="s">
+      <c r="V12" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="44" t="s">
+      <c r="W12" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="X12" s="44" t="s">
+      <c r="X12" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="Y12" s="88" t="s">
+      <c r="Y12" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="Z12" s="44" t="s">
+      <c r="Z12" s="42" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2023,137 +2053,137 @@
       <c r="A13" s="29">
         <v>11</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>1211</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="66" t="s">
+      <c r="O13" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="67">
+      <c r="P13" s="56">
         <v>44646</v>
       </c>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
     </row>
     <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
-      <c r="A14" s="28">
+      <c r="A14" s="82">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="79">
         <v>526251259145</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="80">
         <v>1211</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M14" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="64" t="s">
+      <c r="O14" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="84">
         <v>44646</v>
       </c>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="81" t="s">
+      <c r="Q14" s="81"/>
+      <c r="R14" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="S14" s="82" t="s">
+      <c r="S14" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="T14" s="41" t="s">
+      <c r="T14" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="U14" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="V14" s="41" t="s">
+      <c r="V14" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="W14" s="41" t="s">
+      <c r="W14" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="X14" s="41" t="s">
+      <c r="X14" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" s="41" t="s">
+      <c r="Y14" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" s="41" t="s">
+      <c r="Z14" s="80" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2161,125 +2191,125 @@
       <c r="A15" s="29">
         <v>13</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>526251037317</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="42">
         <v>1312</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="65" t="s">
+      <c r="N15" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="56">
         <v>44646</v>
       </c>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="83" t="s">
+      <c r="Q15" s="54"/>
+      <c r="R15" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="28">
+      <c r="A16" s="78">
         <v>14</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="79">
         <v>526251060168</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="80">
         <v>1211</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="63" t="s">
+      <c r="K16" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="63" t="s">
+      <c r="L16" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="68" t="s">
+      <c r="O16" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="84">
         <v>44762</v>
       </c>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="84" t="s">
+      <c r="Q16" s="81"/>
+      <c r="R16" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
     </row>
     <row r="17" spans="1:26" s="10" customFormat="1">
       <c r="A17" s="10">
@@ -2310,26 +2340,26 @@
       <c r="J17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="69" t="s">
+      <c r="O17" s="57" t="s">
         <v>123</v>
       </c>
       <c r="P17" s="22">
         <v>44647</v>
       </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="85"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="65"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
@@ -2343,10 +2373,10 @@
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="44">
         <v>526251020790</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -2368,25 +2398,25 @@
       <c r="J18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="59" t="s">
+      <c r="M18" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="N18" s="59" t="s">
+      <c r="N18" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="69" t="s">
+      <c r="O18" s="57" t="s">
         <v>127</v>
       </c>
       <c r="P18" s="22">
         <v>44647</v>
       </c>
-      <c r="R18" s="85"/>
+      <c r="R18" s="65"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -2397,141 +2427,160 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="49">
+      <c r="A19" s="82">
         <v>17</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="99">
         <v>526251020642</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="80">
         <v>1211</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31" t="s">
+      <c r="H19" s="80"/>
+      <c r="I19" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="81" t="s">
         <v>23</v>
       </c>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
     </row>
     <row r="20" spans="1:26" s="11" customFormat="1">
-      <c r="A20" s="11">
+      <c r="A20" s="86">
         <v>19</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="88">
         <v>526251579804</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="89">
         <v>1211</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="89"/>
+      <c r="I20" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="72"/>
-      <c r="P20" s="73"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
     </row>
     <row r="22" spans="1:26" s="30" customFormat="1">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="54" t="s">
+      <c r="H22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="K22" s="74" t="s">
+      <c r="K22" s="58" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="89" t="s">
+      <c r="M22" s="68" t="s">
         <v>134</v>
       </c>
       <c r="N22" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="O22" s="75" t="s">
+      <c r="O22" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="R22" s="87"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="R1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2539,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
@@ -2705,13 +2754,13 @@
       <c r="D4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="73" t="s">
         <v>144</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="73" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2726,7 +2775,7 @@
       <c r="K4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="76" t="s">
         <v>155</v>
       </c>
       <c r="V4" s="26"/>
@@ -2740,19 +2789,19 @@
       <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="99">
+      <c r="A5" s="77">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="74" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="20">
         <v>526251020266</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="73" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -2767,13 +2816,13 @@
       <c r="I5" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="76" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3124,15 +3173,15 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="70">
         <v>526251020266</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72" t="s">
         <v>159</v>
       </c>
     </row>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484F04F9-F71A-43DA-880C-342A88543D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F2ECF-CFB8-4329-AA65-2606741563A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="491" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="491" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="169">
   <si>
     <t>Observaciones</t>
   </si>
@@ -526,13 +526,16 @@
   </si>
   <si>
     <t>[21.979798, -98.753810]</t>
+  </si>
+  <si>
+    <t>AGxx v0.2.2 A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,6 +639,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1301,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2588,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -2757,14 +2766,14 @@
       <c r="E4" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="73" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>146</v>
+      <c r="H4" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>147</v>
@@ -2804,14 +2813,14 @@
       <c r="E5" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="73" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>146</v>
+      <c r="H5" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>147</v>
@@ -2827,6 +2836,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735F2ECF-CFB8-4329-AA65-2606741563A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6271D0F-3469-4A15-9438-DCC3CB297A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="491" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="491" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="175">
   <si>
     <t>Observaciones</t>
   </si>
@@ -303,9 +303,6 @@
     <t>8952020020333844189</t>
   </si>
   <si>
-    <t>{0, 2, 3, 12, 11, 0, 52, 625, 8372598}</t>
-  </si>
-  <si>
     <t>Abraham 5</t>
   </si>
   <si>
@@ -529,18 +526,46 @@
   </si>
   <si>
     <t>AGxx v0.2.2 A</t>
+  </si>
+  <si>
+    <t>Pv66 v0.2.6.240106 A</t>
+  </si>
+  <si>
+    <t>{0, 3, 2, 12, 11, 0, 52, 625, 837,2598}</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>La Noria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,13 +608,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -645,6 +663,58 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -732,13 +802,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -760,13 +830,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -787,22 +857,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -811,133 +881,82 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1029,12 +1048,94 @@
     <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1311,17 +1412,17 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
     <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
     <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
@@ -1336,22 +1437,22 @@
     <col min="15" max="15" width="26.1796875" style="12" customWidth="1"/>
     <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
     <col min="18" max="18" width="60.26953125" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.1796875" style="31" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="30" customWidth="1"/>
     <col min="27" max="16384" width="11.54296875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -1434,54 +1535,54 @@
       </c>
     </row>
     <row r="3" spans="1:26" s="11" customFormat="1">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>526251106286</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>1211</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="35" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="49">
+      <c r="P3" s="42">
         <v>43872</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="48" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="9"/>
@@ -1493,369 +1594,369 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="29">
-      <c r="A4" s="10">
+    <row r="4" spans="1:26" s="87" customFormat="1" ht="29">
+      <c r="A4" s="87">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="85">
         <v>526251271378</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="86">
         <v>1211</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="86"/>
+      <c r="I4" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="97">
         <v>44603</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" s="10" customFormat="1" ht="29">
-      <c r="A5" s="10">
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+    </row>
+    <row r="5" spans="1:26" s="87" customFormat="1" ht="29">
+      <c r="A5" s="87">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="85">
         <v>526251024489</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="86">
         <v>1211</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="86"/>
+      <c r="I5" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="97">
         <v>44603</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" spans="1:26" s="10" customFormat="1">
-      <c r="A6" s="10">
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+    </row>
+    <row r="6" spans="1:26" s="87" customFormat="1">
+      <c r="A6" s="87">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="85">
         <v>526251452797</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="86">
         <v>1211</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="86"/>
+      <c r="I6" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="97">
         <v>44603</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-    </row>
-    <row r="7" spans="1:26" s="10" customFormat="1">
-      <c r="A7" s="10">
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+    </row>
+    <row r="7" spans="1:26" s="87" customFormat="1">
+      <c r="A7" s="87">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="85">
         <v>526255917395</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="86">
         <v>1211</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="86"/>
+      <c r="I7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="97">
         <v>44603</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-    </row>
-    <row r="8" spans="1:26" s="10" customFormat="1">
-      <c r="A8" s="10">
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+    </row>
+    <row r="8" spans="1:26" s="87" customFormat="1">
+      <c r="A8" s="87">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="85">
         <v>526251193016</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="86">
         <v>1211</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="86"/>
+      <c r="I8" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="97">
         <v>44603</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" spans="1:26" s="10" customFormat="1">
-      <c r="A9" s="10">
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+    </row>
+    <row r="9" spans="1:26" s="87" customFormat="1">
+      <c r="A9" s="87">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="85">
         <v>526251342314</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="86">
         <v>1211</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="97">
         <v>44603</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="98" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1863,34 +1964,34 @@
       <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>526251201079</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>1211</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="38" t="s">
+      <c r="I10" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="43" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="27" t="s">
@@ -1899,690 +2000,693 @@
       <c r="M10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="45">
         <v>44384</v>
       </c>
       <c r="Q10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="61" t="s">
+      <c r="R10" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
     </row>
     <row r="11" spans="1:26" s="28" customFormat="1">
-      <c r="A11" s="82">
+      <c r="A11" s="65">
         <v>9</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="97">
+      <c r="C11" s="80">
         <v>526251020232</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="63">
         <v>1312</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="80" t="s">
+      <c r="J11" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="81" t="s">
+      <c r="L11" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="81" t="s">
+      <c r="N11" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="84" t="s">
+      <c r="O11" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="84">
+      <c r="P11" s="67">
         <v>44646</v>
       </c>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-    </row>
-    <row r="12" spans="1:26" s="29" customFormat="1">
-      <c r="A12" s="29">
+      <c r="Q11" s="65"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+    </row>
+    <row r="12" spans="1:26" s="87" customFormat="1">
+      <c r="A12" s="87">
         <v>10</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="85">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="86">
         <v>1211</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="54" t="s">
+      <c r="L12" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="M12" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="55" t="s">
+      <c r="O12" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="56">
+      <c r="P12" s="90">
         <v>44646</v>
       </c>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="62" t="s">
+      <c r="Q12" s="88"/>
+      <c r="R12" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="T12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="42" t="s">
+      <c r="U12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="V12" s="42" t="s">
+      <c r="V12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="42" t="s">
+      <c r="W12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="X12" s="42" t="s">
+      <c r="X12" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="Y12" s="67" t="s">
+      <c r="Y12" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="Z12" s="42" t="s">
+      <c r="Z12" s="86" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="29" customFormat="1">
-      <c r="A13" s="29">
+    <row r="13" spans="1:26" s="87" customFormat="1">
+      <c r="A13" s="87">
         <v>11</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="85">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="86">
         <v>1211</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="N13" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="90">
+        <v>44646</v>
+      </c>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+    </row>
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="62">
+        <v>526251259145</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="63">
+        <v>1211</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K14" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="54" t="s">
+      <c r="L14" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="N13" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="P13" s="56">
+      <c r="M14" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="67">
         <v>44646</v>
       </c>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-    </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
-      <c r="A14" s="82">
-        <v>12</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="79">
-        <v>526251259145</v>
-      </c>
-      <c r="D14" s="80" t="s">
+      <c r="Q14" s="64"/>
+      <c r="R14" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="S14" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="U14" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="X14" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y14" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z14" s="63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="99" customFormat="1">
+      <c r="A15" s="99">
+        <v>13</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="101">
+        <v>526251037317</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="102">
+        <v>1312</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="J15" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="105">
+        <v>44646</v>
+      </c>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+    </row>
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
+      <c r="A16" s="61">
+        <v>14</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="62">
+        <v>526251060168</v>
+      </c>
+      <c r="D16" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G16" s="63">
         <v>1211</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H16" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="80" t="s">
+      <c r="I16" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K16" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="81" t="s">
+      <c r="L16" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" s="81" t="s">
+      <c r="M16" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="P14" s="84">
-        <v>44646</v>
-      </c>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="T14" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="U14" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="W14" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="X14" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y14" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z14" s="80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="29" customFormat="1">
-      <c r="A15" s="29">
-        <v>13</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="41">
-        <v>526251037317</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="O16" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="67">
+        <v>44762</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+    </row>
+    <row r="17" spans="1:26" s="99" customFormat="1">
+      <c r="A17" s="99">
+        <v>15</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="101">
+        <v>526251059200</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="102">
+        <v>1211</v>
+      </c>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="105">
+        <v>44647</v>
+      </c>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+    </row>
+    <row r="18" spans="1:26" s="87" customFormat="1">
+      <c r="A18" s="87">
+        <v>16</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="108">
+        <v>526251020790</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="86">
+        <v>1211</v>
+      </c>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="N18" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="90">
+        <v>44647</v>
+      </c>
+      <c r="R18" s="109"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="82">
+        <v>526251020642</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F19" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="63">
+        <v>1211</v>
+      </c>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+    </row>
+    <row r="20" spans="1:26" s="11" customFormat="1">
+      <c r="A20" s="69">
+        <v>19</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="71">
+        <v>526251579804</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="42">
-        <v>1312</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="39" t="s">
+      <c r="G20" s="72">
+        <v>1211</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K20" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="P15" s="56">
-        <v>44646</v>
-      </c>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-    </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="78">
-        <v>14</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="79">
-        <v>526251060168</v>
-      </c>
-      <c r="D16" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="80">
-        <v>1211</v>
-      </c>
-      <c r="H16" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="81" t="s">
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="J21" s="95"/>
+    </row>
+    <row r="22" spans="1:26" s="29" customFormat="1">
+      <c r="B22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="84">
-        <v>44762</v>
-      </c>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-    </row>
-    <row r="17" spans="1:26" s="10" customFormat="1">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="16">
-        <v>526251059200</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1211</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" s="22">
-        <v>44647</v>
-      </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-    </row>
-    <row r="18" spans="1:26" s="10" customFormat="1">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="44">
-        <v>526251020790</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1211</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" s="22">
-        <v>44647</v>
-      </c>
-      <c r="R18" s="65"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="82">
-        <v>17</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="99">
-        <v>526251020642</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="80">
-        <v>1211</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-    </row>
-    <row r="20" spans="1:26" s="11" customFormat="1">
-      <c r="A20" s="86">
-        <v>19</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="88">
-        <v>526251579804</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="89">
-        <v>1211</v>
-      </c>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89" t="s">
+      <c r="L22" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="N22" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-    </row>
-    <row r="22" spans="1:26" s="30" customFormat="1">
-      <c r="B22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="K22" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="68" t="s">
+      <c r="O22" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="N22" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="O22" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="R22" s="66"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2597,11 +2701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
     <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
@@ -2670,25 +2774,25 @@
         <v>15</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>16</v>
@@ -2707,31 +2811,31 @@
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>144</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="22" t="s">
         <v>149</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>150</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -2747,7 +2851,7 @@
         <v>28</v>
       </c>
       <c r="V3" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:30" s="11" customFormat="1">
@@ -2755,37 +2859,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="20">
         <v>526251020596</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>168</v>
+      <c r="G4" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J4" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="59" t="s">
         <v>154</v>
-      </c>
-      <c r="L4" s="76" t="s">
-        <v>155</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="9"/>
@@ -2798,41 +2902,41 @@
       <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="77">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>161</v>
+      <c r="B5" s="57" t="s">
+        <v>160</v>
       </c>
       <c r="C5" s="20">
         <v>526251020266</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="K5" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="76" t="s">
-        <v>167</v>
+      <c r="K5" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2849,20 +2953,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="5" max="5" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2870,16 +2974,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2893,10 +2997,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -2910,10 +3017,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -2927,10 +3037,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
@@ -2944,12 +3057,15 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="3">
         <v>526251059200</v>
@@ -2961,12 +3077,16 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="110"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="6">
         <v>526251259145</v>
@@ -2978,10 +3098,16 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -2995,10 +3121,13 @@
         <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G8" s="112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -3012,10 +3141,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -3029,12 +3161,15 @@
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G10" s="112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6">
         <v>526251060168</v>
@@ -3046,12 +3181,18 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="3">
         <v>526251037317</v>
@@ -3063,10 +3204,13 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -3080,10 +3224,13 @@
         <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G13" s="112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -3097,12 +3244,15 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G14" s="112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="6">
         <v>526251579804</v>
@@ -3114,10 +3264,13 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -3131,10 +3284,13 @@
         <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -3144,23 +3300,32 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G18" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
         <v>526251020790</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G19" s="112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="6">
         <v>526251020642</v>
@@ -3168,31 +3333,40 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="3">
         <v>526251020596</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="70">
+        <v>158</v>
+      </c>
+      <c r="G21" s="112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="53">
         <v>526251020266</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72" t="s">
-        <v>159</v>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="112" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6271D0F-3469-4A15-9438-DCC3CB297A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3CEBF2-0F01-410E-9234-58495F2FA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="491" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
   <si>
     <t>Observaciones</t>
   </si>
@@ -537,9 +537,6 @@
     <t>Johan</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Bernardo</t>
   </si>
   <si>
@@ -547,13 +544,25 @@
   </si>
   <si>
     <t>La Noria</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Abraham Polo 1</t>
+  </si>
+  <si>
+    <t>Abraham 5 -&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,6 +728,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -806,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1048,31 +1064,28 @@
     <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,10 +1103,10 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1123,16 +1136,40 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1412,10 +1449,10 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1442,17 +1479,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="83" t="s">
+      <c r="R1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -1594,369 +1631,369 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="87" customFormat="1" ht="29">
-      <c r="A4" s="87">
+    <row r="4" spans="1:26" s="86" customFormat="1" ht="29">
+      <c r="A4" s="86">
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="84">
         <v>526251271378</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="85">
         <v>1211</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86" t="s">
+      <c r="H4" s="85"/>
+      <c r="I4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="97">
+      <c r="P4" s="96">
         <v>44603</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-    </row>
-    <row r="5" spans="1:26" s="87" customFormat="1" ht="29">
-      <c r="A5" s="87">
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+    </row>
+    <row r="5" spans="1:26" s="86" customFormat="1" ht="29">
+      <c r="A5" s="86">
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="84">
         <v>526251024489</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="85">
         <v>1211</v>
       </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86" t="s">
+      <c r="H5" s="85"/>
+      <c r="I5" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="87" t="s">
+      <c r="N5" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="O5" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="97">
+      <c r="P5" s="96">
         <v>44603</v>
       </c>
-      <c r="Q5" s="87" t="s">
+      <c r="Q5" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="98" t="s">
+      <c r="R5" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-    </row>
-    <row r="6" spans="1:26" s="87" customFormat="1">
-      <c r="A6" s="87">
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+    </row>
+    <row r="6" spans="1:26" s="86" customFormat="1">
+      <c r="A6" s="86">
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="84">
         <v>526251452797</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>1211</v>
       </c>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86" t="s">
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="88" t="s">
+      <c r="K6" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="87" t="s">
+      <c r="N6" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="90" t="s">
+      <c r="O6" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="97">
+      <c r="P6" s="96">
         <v>44603</v>
       </c>
-      <c r="Q6" s="87" t="s">
+      <c r="Q6" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="98" t="s">
+      <c r="R6" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-    </row>
-    <row r="7" spans="1:26" s="87" customFormat="1">
-      <c r="A7" s="87">
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+    </row>
+    <row r="7" spans="1:26" s="86" customFormat="1">
+      <c r="A7" s="86">
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="84">
         <v>526255917395</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>1211</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="86" t="s">
+      <c r="J7" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="88" t="s">
+      <c r="K7" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="90" t="s">
+      <c r="O7" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="97">
+      <c r="P7" s="96">
         <v>44603</v>
       </c>
-      <c r="Q7" s="87" t="s">
+      <c r="Q7" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="98" t="s">
+      <c r="R7" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-    </row>
-    <row r="8" spans="1:26" s="87" customFormat="1">
-      <c r="A8" s="87">
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+    </row>
+    <row r="8" spans="1:26" s="86" customFormat="1">
+      <c r="A8" s="86">
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="84">
         <v>526251193016</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>1211</v>
       </c>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="90" t="s">
+      <c r="O8" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="97">
+      <c r="P8" s="96">
         <v>44603</v>
       </c>
-      <c r="Q8" s="87" t="s">
+      <c r="Q8" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-    </row>
-    <row r="9" spans="1:26" s="87" customFormat="1">
-      <c r="A9" s="87">
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+    </row>
+    <row r="9" spans="1:26" s="86" customFormat="1">
+      <c r="A9" s="86">
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="84">
         <v>526251342314</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>1211</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="88" t="s">
+      <c r="K9" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="90" t="s">
+      <c r="O9" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="97">
+      <c r="P9" s="96">
         <v>44603</v>
       </c>
-      <c r="Q9" s="87" t="s">
+      <c r="Q9" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="98" t="s">
+      <c r="R9" s="97" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1988,7 +2025,7 @@
       <c r="I10" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="J10" s="91" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="43" t="s">
@@ -2049,7 +2086,7 @@
       <c r="I11" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="93" t="s">
+      <c r="J11" s="92" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="64" t="s">
@@ -2081,143 +2118,143 @@
       <c r="Y11" s="63"/>
       <c r="Z11" s="63"/>
     </row>
-    <row r="12" spans="1:26" s="87" customFormat="1">
-      <c r="A12" s="87">
+    <row r="12" spans="1:26" s="86" customFormat="1">
+      <c r="A12" s="86">
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="84">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>1211</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="88" t="s">
+      <c r="L12" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="89" t="s">
+      <c r="O12" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="90">
+      <c r="P12" s="89">
         <v>44646</v>
       </c>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="91" t="s">
+      <c r="Q12" s="87"/>
+      <c r="R12" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="86" t="s">
+      <c r="S12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="86" t="s">
+      <c r="T12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="V12" s="86" t="s">
+      <c r="V12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="86" t="s">
+      <c r="W12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="X12" s="86" t="s">
+      <c r="X12" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="Y12" s="86" t="s">
+      <c r="Y12" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="Z12" s="86" t="s">
+      <c r="Z12" s="85" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="87" customFormat="1">
-      <c r="A13" s="87">
+    <row r="13" spans="1:26" s="86" customFormat="1">
+      <c r="A13" s="86">
         <v>11</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="84">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="85">
         <v>1211</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="K13" s="88" t="s">
+      <c r="K13" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="88" t="s">
+      <c r="L13" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="88" t="s">
+      <c r="M13" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="88" t="s">
+      <c r="N13" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="89" t="s">
+      <c r="O13" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="89">
         <v>44646</v>
       </c>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
     </row>
     <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
       <c r="A14" s="65">
@@ -2247,7 +2284,7 @@
       <c r="I14" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="93" t="s">
+      <c r="J14" s="92" t="s">
         <v>34</v>
       </c>
       <c r="K14" s="64" t="s">
@@ -2297,67 +2334,67 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="99" customFormat="1">
-      <c r="A15" s="99">
+    <row r="15" spans="1:26" s="98" customFormat="1">
+      <c r="A15" s="98">
         <v>13</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="100">
         <v>526251037317</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="101">
         <v>1312</v>
       </c>
-      <c r="H15" s="102" t="s">
+      <c r="H15" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="102" t="s">
+      <c r="I15" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="102" t="s">
+      <c r="J15" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="103" t="s">
+      <c r="K15" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="103" t="s">
+      <c r="L15" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="103" t="s">
+      <c r="M15" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="103" t="s">
+      <c r="N15" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="104" t="s">
+      <c r="O15" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="105">
+      <c r="P15" s="104">
         <v>44646</v>
       </c>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="106" t="s">
+      <c r="Q15" s="102"/>
+      <c r="R15" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="102"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="61">
@@ -2387,7 +2424,7 @@
       <c r="I16" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="92" t="s">
         <v>34</v>
       </c>
       <c r="K16" s="64" t="s">
@@ -2421,120 +2458,120 @@
       <c r="Y16" s="63"/>
       <c r="Z16" s="63"/>
     </row>
-    <row r="17" spans="1:26" s="99" customFormat="1">
-      <c r="A17" s="99">
+    <row r="17" spans="1:26" s="98" customFormat="1">
+      <c r="A17" s="98">
         <v>15</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="100">
         <v>526251059200</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="102">
+      <c r="G17" s="101">
         <v>1211</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="102" t="s">
+      <c r="J17" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="103" t="s">
+      <c r="K17" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="103" t="s">
+      <c r="L17" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="103" t="s">
+      <c r="M17" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="104" t="s">
+      <c r="O17" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="105">
+      <c r="P17" s="104">
         <v>44647</v>
       </c>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-    </row>
-    <row r="18" spans="1:26" s="87" customFormat="1">
-      <c r="A18" s="87">
+      <c r="Q17" s="102"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+    </row>
+    <row r="18" spans="1:26" s="86" customFormat="1">
+      <c r="A18" s="86">
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="107">
         <v>526251020790</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="85">
         <v>1211</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86" t="s">
+      <c r="H18" s="85"/>
+      <c r="I18" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="88" t="s">
+      <c r="K18" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="88" t="s">
+      <c r="L18" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="88" t="s">
+      <c r="M18" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="P18" s="90">
+      <c r="P18" s="89">
         <v>44647</v>
       </c>
-      <c r="R18" s="109"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="65">
@@ -2562,7 +2599,7 @@
       <c r="I19" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="93" t="s">
+      <c r="J19" s="92" t="s">
         <v>34</v>
       </c>
       <c r="K19" s="64" t="s">
@@ -2610,7 +2647,7 @@
       <c r="I20" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="93" t="s">
         <v>34</v>
       </c>
       <c r="K20" s="73" t="s">
@@ -2633,7 +2670,7 @@
       <c r="Z20" s="72"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="J21" s="95"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:26" s="29" customFormat="1">
       <c r="B22" s="38" t="s">
@@ -2660,7 +2697,7 @@
       <c r="I22" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="96" t="s">
+      <c r="J22" s="95" t="s">
         <v>131</v>
       </c>
       <c r="K22" s="46" t="s">
@@ -2953,10 +2990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -2964,6 +3001,8 @@
     <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="5" max="5" width="36.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2999,8 +3038,11 @@
       <c r="E2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="112" t="s">
         <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3019,8 +3061,11 @@
       <c r="E3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="111" t="s">
         <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3039,8 +3084,11 @@
       <c r="E4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="112" t="s">
-        <v>81</v>
+      <c r="G4" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3059,30 +3107,32 @@
       <c r="E5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="112" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="117" customFormat="1">
+      <c r="A6" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="115">
         <v>526251059200</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="116">
         <v>32845132</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="116">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
@@ -3100,11 +3150,11 @@
       <c r="E7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="110" t="s">
-        <v>171</v>
+      <c r="G7" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3123,8 +3173,11 @@
       <c r="E8" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="111" t="s">
         <v>170</v>
+      </c>
+      <c r="H8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3143,8 +3196,11 @@
       <c r="E9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="111" t="s">
         <v>170</v>
+      </c>
+      <c r="H9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3163,8 +3219,11 @@
       <c r="E10" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="111" t="s">
         <v>170</v>
+      </c>
+      <c r="H10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3183,31 +3242,31 @@
       <c r="E11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="110" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="117" customFormat="1">
+      <c r="A12" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="115">
         <v>526251037317</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="116">
         <v>32848094</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="116">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="111" t="s">
-        <v>81</v>
+      <c r="G12" s="117" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3226,8 +3285,11 @@
       <c r="E13" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="111" t="s">
         <v>170</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3246,8 +3308,11 @@
       <c r="E14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="112" t="s">
-        <v>172</v>
+      <c r="G14" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3266,107 +3331,123 @@
       <c r="E15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="109" t="s">
         <v>131</v>
       </c>
+      <c r="H15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="119">
         <v>526251201079</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="120">
         <v>32848099</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="120">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="F16" s="121"/>
+      <c r="G16" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="6">
+        <v>526251020232</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="3">
+        <v>526251020790</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="6">
+        <v>526251020642</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="109" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="3">
+        <v>526251020596</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="53">
+        <v>526251020266</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="111" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="6">
-        <v>526251020232</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="110" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="3">
-        <v>526251020790</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="6">
-        <v>526251020642</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="3">
-        <v>526251020596</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="112" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="53">
-        <v>526251020266</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="G22" s="112" t="s">
-        <v>174</v>
+      <c r="H21" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3CEBF2-0F01-410E-9234-58495F2FA7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245CEC5-7BEB-4814-A4CD-E53ABB0ECA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="491" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
   <si>
     <t>Observaciones</t>
   </si>
@@ -534,9 +534,6 @@
     <t>{0, 3, 2, 12, 11, 0, 52, 625, 837,2598}</t>
   </si>
   <si>
-    <t>Johan</t>
-  </si>
-  <si>
     <t>Bernardo</t>
   </si>
   <si>
@@ -556,18 +553,31 @@
   </si>
   <si>
     <t>Abraham 5 -&gt;</t>
+  </si>
+  <si>
+    <t>Listo</t>
+  </si>
+  <si>
+    <t>Quitar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,20 +733,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,12 +803,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -818,13 +828,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -846,13 +856,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -861,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -873,22 +883,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -897,258 +907,246 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1159,17 +1157,51 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1452,7 +1484,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -1479,17 +1511,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="113" t="s">
+      <c r="R1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -1631,369 +1663,369 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="86" customFormat="1" ht="29">
-      <c r="A4" s="86">
+    <row r="4" spans="1:26" s="82" customFormat="1" ht="29">
+      <c r="A4" s="82">
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="80">
         <v>526251271378</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="81">
         <v>1211</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85" t="s">
+      <c r="H4" s="81"/>
+      <c r="I4" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="96">
+      <c r="P4" s="92">
         <v>44603</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-    </row>
-    <row r="5" spans="1:26" s="86" customFormat="1" ht="29">
-      <c r="A5" s="86">
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="81"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+    </row>
+    <row r="5" spans="1:26" s="82" customFormat="1" ht="29">
+      <c r="A5" s="82">
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="80">
         <v>526251024489</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="81">
         <v>1211</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="86" t="s">
+      <c r="N5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="89" t="s">
+      <c r="O5" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="96">
+      <c r="P5" s="92">
         <v>44603</v>
       </c>
-      <c r="Q5" s="86" t="s">
+      <c r="Q5" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="97" t="s">
+      <c r="R5" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-    </row>
-    <row r="6" spans="1:26" s="86" customFormat="1">
-      <c r="A6" s="86">
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+    </row>
+    <row r="6" spans="1:26" s="82" customFormat="1">
+      <c r="A6" s="82">
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="80">
         <v>526251452797</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="81">
         <v>1211</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85" t="s">
+      <c r="H6" s="81"/>
+      <c r="I6" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L6" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="86" t="s">
+      <c r="N6" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="89" t="s">
+      <c r="O6" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="96">
+      <c r="P6" s="92">
         <v>44603</v>
       </c>
-      <c r="Q6" s="86" t="s">
+      <c r="Q6" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="R6" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-    </row>
-    <row r="7" spans="1:26" s="86" customFormat="1">
-      <c r="A7" s="86">
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+    </row>
+    <row r="7" spans="1:26" s="82" customFormat="1">
+      <c r="A7" s="82">
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="80">
         <v>526255917395</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="81">
         <v>1211</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85" t="s">
+      <c r="H7" s="81"/>
+      <c r="I7" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="87" t="s">
+      <c r="K7" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="86" t="s">
+      <c r="L7" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="96">
+      <c r="P7" s="92">
         <v>44603</v>
       </c>
-      <c r="Q7" s="86" t="s">
+      <c r="Q7" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="97" t="s">
+      <c r="R7" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-    </row>
-    <row r="8" spans="1:26" s="86" customFormat="1">
-      <c r="A8" s="86">
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+    </row>
+    <row r="8" spans="1:26" s="82" customFormat="1">
+      <c r="A8" s="82">
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="80">
         <v>526251193016</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="85" t="s">
+      <c r="F8" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="81">
         <v>1211</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="85" t="s">
+      <c r="J8" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="K8" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="86" t="s">
+      <c r="N8" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="89" t="s">
+      <c r="O8" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="96">
+      <c r="P8" s="92">
         <v>44603</v>
       </c>
-      <c r="Q8" s="86" t="s">
+      <c r="Q8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="97" t="s">
+      <c r="R8" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-    </row>
-    <row r="9" spans="1:26" s="86" customFormat="1">
-      <c r="A9" s="86">
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+    </row>
+    <row r="9" spans="1:26" s="82" customFormat="1">
+      <c r="A9" s="82">
         <v>7</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="80">
         <v>526251342314</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="81">
         <v>1211</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="86" t="s">
+      <c r="N9" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="89" t="s">
+      <c r="O9" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="96">
+      <c r="P9" s="92">
         <v>44603</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="Q9" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="97" t="s">
+      <c r="R9" s="93" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2025,7 +2057,7 @@
       <c r="I10" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="J10" s="91" t="s">
+      <c r="J10" s="87" t="s">
         <v>73</v>
       </c>
       <c r="K10" s="43" t="s">
@@ -2059,618 +2091,618 @@
       <c r="Z10" s="37"/>
     </row>
     <row r="11" spans="1:26" s="28" customFormat="1">
-      <c r="A11" s="65">
+      <c r="A11" s="61">
         <v>9</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="76">
         <v>526251020232</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="59">
         <v>1312</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="J11" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="67">
+      <c r="P11" s="63">
         <v>44646</v>
       </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="63"/>
-    </row>
-    <row r="12" spans="1:26" s="86" customFormat="1">
-      <c r="A12" s="86">
+      <c r="Q11" s="61"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+    </row>
+    <row r="12" spans="1:26" s="82" customFormat="1">
+      <c r="A12" s="82">
         <v>10</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="80">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="81">
         <v>1211</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="85" t="s">
+      <c r="J12" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="87" t="s">
+      <c r="L12" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="89">
+      <c r="P12" s="85">
         <v>44646</v>
       </c>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="90" t="s">
+      <c r="Q12" s="83"/>
+      <c r="R12" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="85" t="s">
+      <c r="T12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="V12" s="85" t="s">
+      <c r="V12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="X12" s="85" t="s">
+      <c r="X12" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="Y12" s="85" t="s">
+      <c r="Y12" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="81" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="86" customFormat="1">
-      <c r="A13" s="86">
+    <row r="13" spans="1:26" s="82" customFormat="1">
+      <c r="A13" s="82">
         <v>11</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="80">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="81">
         <v>1211</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="85" t="s">
+      <c r="I13" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="85" t="s">
+      <c r="J13" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="K13" s="87" t="s">
+      <c r="K13" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="87" t="s">
+      <c r="L13" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="87" t="s">
+      <c r="M13" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="87" t="s">
+      <c r="N13" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="88" t="s">
+      <c r="O13" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="89">
+      <c r="P13" s="85">
         <v>44646</v>
       </c>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
     </row>
     <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
-      <c r="A14" s="65">
+      <c r="A14" s="61">
         <v>12</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="58">
         <v>526251259145</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="59">
         <v>1211</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="92" t="s">
+      <c r="J14" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="64" t="s">
+      <c r="M14" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="67">
+      <c r="P14" s="63">
         <v>44646</v>
       </c>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="77" t="s">
+      <c r="Q14" s="60"/>
+      <c r="R14" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="78" t="s">
+      <c r="S14" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="63" t="s">
+      <c r="T14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="U14" s="63" t="s">
+      <c r="U14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="V14" s="63" t="s">
+      <c r="V14" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="W14" s="63" t="s">
+      <c r="W14" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="X14" s="63" t="s">
+      <c r="X14" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="Y14" s="63" t="s">
+      <c r="Y14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="Z14" s="63" t="s">
+      <c r="Z14" s="59" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="98" customFormat="1">
-      <c r="A15" s="98">
+    <row r="15" spans="1:26" s="94" customFormat="1">
+      <c r="A15" s="94">
         <v>13</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="96">
         <v>526251037317</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="F15" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="97">
         <v>1312</v>
       </c>
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="101" t="s">
+      <c r="I15" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="101" t="s">
+      <c r="J15" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="102" t="s">
+      <c r="K15" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="102" t="s">
+      <c r="M15" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="102" t="s">
+      <c r="N15" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="103" t="s">
+      <c r="O15" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="104">
+      <c r="P15" s="100">
         <v>44646</v>
       </c>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="105" t="s">
+      <c r="Q15" s="98"/>
+      <c r="R15" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
     </row>
     <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="61">
+      <c r="A16" s="57">
         <v>14</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="58">
         <v>526251060168</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="59">
         <v>1211</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="92" t="s">
+      <c r="J16" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="64" t="s">
+      <c r="L16" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="65" t="s">
+      <c r="M16" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="66" t="s">
+      <c r="O16" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="67">
+      <c r="P16" s="63">
         <v>44762</v>
       </c>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="68" t="s">
+      <c r="Q16" s="60"/>
+      <c r="R16" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="63"/>
-      <c r="Z16" s="63"/>
-    </row>
-    <row r="17" spans="1:26" s="98" customFormat="1">
-      <c r="A17" s="98">
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+    </row>
+    <row r="17" spans="1:26" s="94" customFormat="1">
+      <c r="A17" s="94">
         <v>15</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="100">
+      <c r="C17" s="96">
         <v>526251059200</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="101">
+      <c r="G17" s="97">
         <v>1211</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101" t="s">
+      <c r="H17" s="97"/>
+      <c r="I17" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="101" t="s">
+      <c r="J17" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="102" t="s">
+      <c r="K17" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="102" t="s">
+      <c r="L17" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="102" t="s">
+      <c r="M17" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="102" t="s">
+      <c r="N17" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="103" t="s">
+      <c r="O17" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="104">
+      <c r="P17" s="100">
         <v>44647</v>
       </c>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-    </row>
-    <row r="18" spans="1:26" s="86" customFormat="1">
-      <c r="A18" s="86">
+      <c r="Q17" s="98"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+    </row>
+    <row r="18" spans="1:26" s="82" customFormat="1">
+      <c r="A18" s="82">
         <v>16</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="103">
         <v>526251020790</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="81">
         <v>1211</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85" t="s">
+      <c r="H18" s="81"/>
+      <c r="I18" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="85" t="s">
+      <c r="J18" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="87" t="s">
+      <c r="L18" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="M18" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="N18" s="87" t="s">
+      <c r="N18" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="88" t="s">
+      <c r="O18" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="P18" s="89">
+      <c r="P18" s="85">
         <v>44647</v>
       </c>
-      <c r="R18" s="108"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="65">
+      <c r="A19" s="61">
         <v>17</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="78">
         <v>526251020642</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="59">
         <v>1211</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63" t="s">
+      <c r="H19" s="59"/>
+      <c r="I19" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="92" t="s">
+      <c r="J19" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="63"/>
-      <c r="X19" s="63"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
     </row>
     <row r="20" spans="1:26" s="11" customFormat="1">
-      <c r="A20" s="69">
+      <c r="A20" s="65">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="67">
         <v>526251579804</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="72" t="s">
+      <c r="F20" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="68">
         <v>1211</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72" t="s">
+      <c r="H20" s="68"/>
+      <c r="I20" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="J21" s="94"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:26" s="29" customFormat="1">
       <c r="B22" s="38" t="s">
@@ -2697,7 +2729,7 @@
       <c r="I22" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="95" t="s">
+      <c r="J22" s="91" t="s">
         <v>131</v>
       </c>
       <c r="K22" s="46" t="s">
@@ -2904,16 +2936,16 @@
       <c r="D4" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="52" t="s">
         <v>167</v>
       </c>
       <c r="I4" s="23" t="s">
@@ -2925,7 +2957,7 @@
       <c r="K4" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="55" t="s">
         <v>154</v>
       </c>
       <c r="V4" s="26"/>
@@ -2939,45 +2971,45 @@
       <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="60">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="20">
         <v>526251020266</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="52" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="52" t="s">
         <v>167</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="55" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -2990,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -3005,7 +3037,7 @@
     <col min="8" max="8" width="3.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3022,53 +3054,62 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" s="130" customFormat="1">
+      <c r="A2" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="130">
         <v>526251106286</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="130">
         <v>32845128</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="130">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="130" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="116" customFormat="1">
+      <c r="A3" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="114">
         <v>526251024489</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="115">
         <v>32845129</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="115">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3084,57 +3125,60 @@
       <c r="E4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="107" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="116" customFormat="1">
+      <c r="A5" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="114">
         <v>526258372598</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="115">
         <v>32845131</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="115">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="H5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="117" customFormat="1">
-      <c r="A6" s="114" t="s">
+    </row>
+    <row r="6" spans="1:10" s="111" customFormat="1">
+      <c r="A6" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="109">
         <v>526251059200</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="110">
         <v>32845132</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="110">
         <v>18</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="111" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3150,83 +3194,92 @@
       <c r="E7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="107" t="s">
         <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="116" customFormat="1">
+      <c r="A8" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="118">
         <v>526255917395</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="119">
         <v>32845135</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="119">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="G8" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="116" customFormat="1">
+      <c r="A9" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="114">
         <v>526251271378</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="115">
         <v>32848029</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="115">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="116" customFormat="1">
+      <c r="A10" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="118">
         <v>526251193016</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="119">
         <v>32848031</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="119">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>110</v>
       </c>
@@ -3242,80 +3295,86 @@
       <c r="E11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="111" t="s">
-        <v>176</v>
+      <c r="G11" s="107" t="s">
+        <v>175</v>
       </c>
       <c r="H11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="111" customFormat="1">
+      <c r="A12" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="109">
+        <v>526251037317</v>
+      </c>
+      <c r="C12" s="110">
+        <v>32848094</v>
+      </c>
+      <c r="D12" s="110">
+        <v>32</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="116" customFormat="1">
+      <c r="A13" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="114">
+        <v>526251452797</v>
+      </c>
+      <c r="C13" s="115">
+        <v>32848096</v>
+      </c>
+      <c r="D13" s="115">
+        <v>32</v>
+      </c>
+      <c r="E13" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="127" customFormat="1">
+      <c r="A14" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="125">
+        <v>526251342314</v>
+      </c>
+      <c r="C14" s="126">
+        <v>32848097</v>
+      </c>
+      <c r="D14" s="126">
+        <v>32</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="127" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="117" customFormat="1">
-      <c r="A12" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="115">
-        <v>526251037317</v>
-      </c>
-      <c r="C12" s="116">
-        <v>32848094</v>
-      </c>
-      <c r="D12" s="116">
-        <v>32</v>
-      </c>
-      <c r="E12" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6">
-        <v>526251452797</v>
-      </c>
-      <c r="C13" s="7">
-        <v>32848096</v>
-      </c>
-      <c r="D13" s="7">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="111" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="3">
-        <v>526251342314</v>
-      </c>
-      <c r="C14" s="4">
-        <v>32848097</v>
-      </c>
-      <c r="D14" s="4">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>129</v>
       </c>
@@ -3331,38 +3390,41 @@
       <c r="E15" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="105" t="s">
         <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="118" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="116" customFormat="1">
+      <c r="A16" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="119">
+      <c r="B16" s="121">
         <v>526251201079</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="122">
         <v>32848099</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="122">
         <v>32</v>
       </c>
-      <c r="E16" s="120" t="s">
+      <c r="E16" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="123"/>
+      <c r="G16" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
@@ -3374,11 +3436,11 @@
       <c r="E17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="106" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3388,14 +3450,14 @@
       <c r="E18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="107" t="s">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -3407,47 +3469,54 @@
       <c r="E19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="109" t="s">
+      <c r="G19" s="105" t="s">
         <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="116" customFormat="1">
+      <c r="A20" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="118">
         <v>526251020596</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="H20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="52" t="s">
+      <c r="H20" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="130" customFormat="1">
+      <c r="A21" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="130">
         <v>526251020266</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="111" t="s">
+      <c r="G21" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="H21" t="s">
-        <v>175</v>
+      <c r="I21" s="130" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" s="130" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmesantiesteban/Documents/GitHub/dta-agricola/Documentación/Empresa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3245CEC5-7BEB-4814-A4CD-E53ABB0ECA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB2C599-A25E-7841-9D4D-D1FC09F6F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="491" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="491" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
   <si>
     <t>Observaciones</t>
   </si>
@@ -565,7 +565,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,7 +592,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,7 +600,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,7 +608,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,26 +616,27 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,20 +727,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -752,7 +739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +794,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -832,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1145,50 +1138,36 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1201,10 +1180,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1487,43 +1479,43 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="31.26953125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.26953125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" style="12" customWidth="1"/>
-    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="60.26953125" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.1796875" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="11.54296875" style="12"/>
+    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" style="12" customWidth="1"/>
+    <col min="16" max="17" width="19.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.33203125" style="13" customWidth="1"/>
+    <col min="19" max="26" width="12.1640625" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="11.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="R1" s="112" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-    </row>
-    <row r="2" spans="1:26" s="9" customFormat="1">
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1">
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -1663,7 +1655,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="82" customFormat="1" ht="29">
+    <row r="4" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -1725,7 +1717,7 @@
       <c r="Y4" s="81"/>
       <c r="Z4" s="81"/>
     </row>
-    <row r="5" spans="1:26" s="82" customFormat="1" ht="29">
+    <row r="5" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -1787,7 +1779,7 @@
       <c r="Y5" s="81"/>
       <c r="Z5" s="81"/>
     </row>
-    <row r="6" spans="1:26" s="82" customFormat="1">
+    <row r="6" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="82">
         <v>4</v>
       </c>
@@ -1849,7 +1841,7 @@
       <c r="Y6" s="81"/>
       <c r="Z6" s="81"/>
     </row>
-    <row r="7" spans="1:26" s="82" customFormat="1">
+    <row r="7" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="82">
         <v>5</v>
       </c>
@@ -1911,7 +1903,7 @@
       <c r="Y7" s="81"/>
       <c r="Z7" s="81"/>
     </row>
-    <row r="8" spans="1:26" s="82" customFormat="1">
+    <row r="8" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="82">
         <v>6</v>
       </c>
@@ -1973,7 +1965,7 @@
       <c r="Y8" s="81"/>
       <c r="Z8" s="81"/>
     </row>
-    <row r="9" spans="1:26" s="82" customFormat="1">
+    <row r="9" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="82">
         <v>7</v>
       </c>
@@ -2029,7 +2021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="27" customFormat="1">
+    <row r="10" spans="1:26" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -2090,7 +2082,7 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
     </row>
-    <row r="11" spans="1:26" s="28" customFormat="1">
+    <row r="11" spans="1:26" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -2150,7 +2142,7 @@
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
     </row>
-    <row r="12" spans="1:26" s="82" customFormat="1">
+    <row r="12" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="82">
         <v>10</v>
       </c>
@@ -2228,7 +2220,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="82" customFormat="1">
+    <row r="13" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="82">
         <v>11</v>
       </c>
@@ -2288,7 +2280,7 @@
       <c r="Y13" s="81"/>
       <c r="Z13" s="81"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="43.5">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="61">
         <v>12</v>
       </c>
@@ -2366,7 +2358,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="94" customFormat="1">
+    <row r="15" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="94">
         <v>13</v>
       </c>
@@ -2428,7 +2420,7 @@
       <c r="Y15" s="97"/>
       <c r="Z15" s="97"/>
     </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57">
         <v>14</v>
       </c>
@@ -2490,7 +2482,7 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" s="94" customFormat="1">
+    <row r="17" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="94">
         <v>15</v>
       </c>
@@ -2548,7 +2540,7 @@
       <c r="Y17" s="97"/>
       <c r="Z17" s="97"/>
     </row>
-    <row r="18" spans="1:26" s="82" customFormat="1">
+    <row r="18" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="82">
         <v>16</v>
       </c>
@@ -2605,7 +2597,7 @@
       <c r="Y18" s="81"/>
       <c r="Z18" s="81"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="61">
         <v>17</v>
       </c>
@@ -2653,7 +2645,7 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
     </row>
-    <row r="20" spans="1:26" s="11" customFormat="1">
+    <row r="20" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
         <v>19</v>
       </c>
@@ -2701,10 +2693,10 @@
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J21" s="90"/>
     </row>
-    <row r="22" spans="1:26" s="29" customFormat="1">
+    <row r="22" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>131</v>
       </c>
@@ -2774,38 +2766,38 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="12" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="39.26953125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="12" customWidth="1"/>
-    <col min="20" max="21" width="19.1796875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="60.26953125" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="12"/>
+    <col min="9" max="9" width="39.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="12" customWidth="1"/>
+    <col min="20" max="21" width="19.1640625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="60.33203125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="11.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2873,7 +2865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="10" customFormat="1">
+    <row r="3" spans="1:30" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2923,7 +2915,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="11" customFormat="1">
+    <row r="4" spans="1:30" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2970,7 +2962,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>3</v>
       </c>
@@ -3024,20 +3016,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3054,62 +3046,62 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="130" customFormat="1">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="130">
+      <c r="B2" s="119">
         <v>526251106286</v>
       </c>
-      <c r="C2" s="130">
+      <c r="C2" s="124">
         <v>32845128</v>
       </c>
-      <c r="D2" s="130">
+      <c r="D2" s="124">
         <v>18</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="130" t="s">
+      <c r="G2" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="130" t="s">
+      <c r="H2" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="130" t="s">
+      <c r="J2" s="124" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="116" customFormat="1">
-      <c r="A3" s="113" t="s">
+    <row r="3" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="108">
         <v>526251024489</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="109">
         <v>32845129</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="109">
         <v>18</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3125,60 +3117,63 @@
       <c r="E4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="106" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="116" customFormat="1">
-      <c r="A5" s="113" t="s">
+    <row r="5" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="108">
         <v>526258372598</v>
       </c>
-      <c r="C5" s="115">
+      <c r="C5" s="109">
         <v>32845131</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="109">
         <v>18</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="116" t="s">
+      <c r="I5" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="111" customFormat="1">
-      <c r="A6" s="108" t="s">
+    <row r="6" spans="1:10" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="127">
         <v>526251059200</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="128">
         <v>32845132</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="128">
         <v>18</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="129" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J6" s="129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3194,92 +3189,92 @@
       <c r="E7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="106" t="s">
         <v>97</v>
       </c>
       <c r="H7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="116" customFormat="1">
-      <c r="A8" s="117" t="s">
+    <row r="8" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="112">
         <v>526255917395</v>
       </c>
-      <c r="C8" s="119">
+      <c r="C8" s="113">
         <v>32845135</v>
       </c>
-      <c r="D8" s="119">
+      <c r="D8" s="113">
         <v>18</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="116" t="s">
+      <c r="G8" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="116" t="s">
+      <c r="I8" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="116" customFormat="1">
-      <c r="A9" s="113" t="s">
+    <row r="9" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="114">
+      <c r="B9" s="108">
         <v>526251271378</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="109">
         <v>32848029</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="109">
         <v>18</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="G9" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="116" customFormat="1">
-      <c r="A10" s="117" t="s">
+    <row r="10" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="112">
         <v>526251193016</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="113">
         <v>32848031</v>
       </c>
-      <c r="D10" s="119">
+      <c r="D10" s="113">
         <v>18</v>
       </c>
-      <c r="E10" s="119" t="s">
+      <c r="E10" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="116" t="s">
+      <c r="G10" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="116" t="s">
+      <c r="I10" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>110</v>
       </c>
@@ -3295,86 +3290,89 @@
       <c r="E11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="106" t="s">
         <v>175</v>
       </c>
       <c r="H11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="111" customFormat="1">
-      <c r="A12" s="108" t="s">
+    <row r="12" spans="1:10" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="126" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="109">
+      <c r="B12" s="127">
         <v>526251037317</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="128">
         <v>32848094</v>
       </c>
-      <c r="D12" s="110">
+      <c r="D12" s="128">
         <v>32</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="129" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="116" customFormat="1">
-      <c r="A13" s="113" t="s">
+      <c r="J12" s="129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="114">
+      <c r="B13" s="108">
         <v>526251452797</v>
       </c>
-      <c r="C13" s="115">
+      <c r="C13" s="109">
         <v>32848096</v>
       </c>
-      <c r="D13" s="115">
+      <c r="D13" s="109">
         <v>32</v>
       </c>
-      <c r="E13" s="115" t="s">
+      <c r="E13" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="G13" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="116" t="s">
+      <c r="I13" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="127" customFormat="1">
-      <c r="A14" s="124" t="s">
+    <row r="14" spans="1:10" s="121" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="125">
+      <c r="B14" s="119">
         <v>526251342314</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="120">
         <v>32848097</v>
       </c>
-      <c r="D14" s="126">
+      <c r="D14" s="120">
         <v>32</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="128" t="s">
+      <c r="G14" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="129" t="s">
+      <c r="J14" s="123" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>129</v>
       </c>
@@ -3397,50 +3395,53 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="116" customFormat="1">
-      <c r="A16" s="120" t="s">
+    <row r="16" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="115">
         <v>526251201079</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="116">
         <v>32848099</v>
       </c>
-      <c r="D16" s="122">
+      <c r="D16" s="116">
         <v>32</v>
       </c>
-      <c r="E16" s="122" t="s">
+      <c r="E16" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123" t="s">
+      <c r="F16" s="117"/>
+      <c r="G16" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:10" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="127">
         <v>526251020232</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="106" t="s">
+      <c r="G17" s="129" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="129" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3450,14 +3451,14 @@
       <c r="E18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G18" s="107" t="s">
+      <c r="G18" s="106" t="s">
         <v>125</v>
       </c>
       <c r="H18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>127</v>
       </c>
@@ -3476,46 +3477,46 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="116" customFormat="1">
-      <c r="A20" s="116" t="s">
+    <row r="20" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="118">
+      <c r="B20" s="112">
         <v>526251020596</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="113" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="I20" s="116" t="s">
+      <c r="I20" s="110" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="130" customFormat="1">
-      <c r="A21" s="130" t="s">
+    <row r="21" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="130">
+      <c r="B21" s="119">
         <v>526251020266</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="130" t="s">
+      <c r="G21" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="H21" s="130" t="s">
+      <c r="H21" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="130" t="s">
+      <c r="I21" s="124" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="130" t="s">
+      <c r="J21" s="124" t="s">
         <v>178</v>
       </c>
     </row>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmesantiesteban/Documents/GitHub/dta-agricola/Documentación/Empresa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB2C599-A25E-7841-9D4D-D1FC09F6F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9114A6E-FE0E-4E31-9511-643B6FD22070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="491" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="577" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
     <sheet name="Estacionarios" sheetId="9" r:id="rId2"/>
-    <sheet name="Relación de líneas" sheetId="10" r:id="rId3"/>
+    <sheet name="Sensores" sheetId="11" r:id="rId3"/>
+    <sheet name="Relación de líneas" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="182">
   <si>
     <t>Observaciones</t>
   </si>
@@ -312,18 +313,9 @@
     <t>8952020020333844213</t>
   </si>
   <si>
-    <t>{0, 2, 3, 12, 11, 0, 52, 625, 1259145}</t>
-  </si>
-  <si>
     <t>Abraham 7</t>
   </si>
   <si>
-    <t>[30.73081,-107.86308]</t>
-  </si>
-  <si>
-    <t>Quitar relay de la derecha (auto reversa). El cable de pistola no llega a la última torre. Se invirtieron los cables de seguridad Amarillo-Rojo y Amarillo. Se sensa la seguridad en el Amarillo.</t>
-  </si>
-  <si>
     <t>1745/1425 (~42rpm)</t>
   </si>
   <si>
@@ -559,18 +551,43 @@
   </si>
   <si>
     <t>Quitar</t>
+  </si>
+  <si>
+    <t>Alberto Delgado</t>
+  </si>
+  <si>
+    <t>http://dtaamerica.com/ws/sensor_v1.php</t>
+  </si>
+  <si>
+    <t>LoRa_Gateway_v3</t>
+  </si>
+  <si>
+    <t>{2, 3, 1, 52, 625, 125, 9145}</t>
+  </si>
+  <si>
+    <t>[28.405038, -106.895213]</t>
+  </si>
+  <si>
+    <t>Sensores Campo 27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,13 +838,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -849,13 +866,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,7 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -876,22 +893,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -900,274 +917,274 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1178,25 +1195,82 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1476,46 +1550,46 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.83203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" style="12" customWidth="1"/>
-    <col min="16" max="17" width="19.1640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="60.33203125" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.1640625" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="11.5" style="12"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.36328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.36328125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="12" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.36328125" style="13" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="11.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="R1" s="125" t="s">
+    <row r="1" spans="1:26">
+      <c r="R1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-    </row>
-    <row r="2" spans="1:26" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="11" customFormat="1">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -1655,7 +1729,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="82" customFormat="1" ht="29">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -1717,7 +1791,7 @@
       <c r="Y4" s="81"/>
       <c r="Z4" s="81"/>
     </row>
-    <row r="5" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="82" customFormat="1" ht="29">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -1779,7 +1853,7 @@
       <c r="Y5" s="81"/>
       <c r="Z5" s="81"/>
     </row>
-    <row r="6" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="82" customFormat="1">
       <c r="A6" s="82">
         <v>4</v>
       </c>
@@ -1841,7 +1915,7 @@
       <c r="Y6" s="81"/>
       <c r="Z6" s="81"/>
     </row>
-    <row r="7" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="82" customFormat="1">
       <c r="A7" s="82">
         <v>5</v>
       </c>
@@ -1903,7 +1977,7 @@
       <c r="Y7" s="81"/>
       <c r="Z7" s="81"/>
     </row>
-    <row r="8" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="82" customFormat="1">
       <c r="A8" s="82">
         <v>6</v>
       </c>
@@ -1965,7 +2039,7 @@
       <c r="Y8" s="81"/>
       <c r="Z8" s="81"/>
     </row>
-    <row r="9" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="82" customFormat="1">
       <c r="A9" s="82">
         <v>7</v>
       </c>
@@ -2021,7 +2095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="27" customFormat="1">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -2047,7 +2121,7 @@
         <v>63</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J10" s="87" t="s">
         <v>73</v>
@@ -2082,7 +2156,7 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
     </row>
-    <row r="11" spans="1:26" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="28" customFormat="1">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -2142,7 +2216,7 @@
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
     </row>
-    <row r="12" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="82" customFormat="1">
       <c r="A12" s="82">
         <v>10</v>
       </c>
@@ -2220,7 +2294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="82" customFormat="1">
       <c r="A13" s="82">
         <v>11</v>
       </c>
@@ -2246,10 +2320,10 @@
         <v>63</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K13" s="83" t="s">
         <v>23</v>
@@ -2280,7 +2354,7 @@
       <c r="Y13" s="81"/>
       <c r="Z13" s="81"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="29">
       <c r="A14" s="61">
         <v>12</v>
       </c>
@@ -2290,80 +2364,52 @@
       <c r="C14" s="58">
         <v>526251259145</v>
       </c>
-      <c r="D14" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="59">
-        <v>1211</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="60" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="N14" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="63" t="s">
+      <c r="T14" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="63">
-        <v>44646</v>
-      </c>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="73" t="s">
+      <c r="U14" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="V14" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="74" t="s">
+      <c r="W14" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="T14" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="V14" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="W14" s="59" t="s">
-        <v>103</v>
-      </c>
       <c r="X14" s="59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Z14" s="59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="94" customFormat="1">
       <c r="A15" s="94">
         <v>13</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C15" s="96">
         <v>526251037317</v>
@@ -2384,7 +2430,7 @@
         <v>63</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J15" s="97" t="s">
         <v>34</v>
@@ -2396,20 +2442,20 @@
         <v>81</v>
       </c>
       <c r="M15" s="98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N15" s="98" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O15" s="99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P15" s="100">
         <v>44646</v>
       </c>
       <c r="Q15" s="98"/>
       <c r="R15" s="101" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S15" s="97"/>
       <c r="T15" s="97"/>
@@ -2420,12 +2466,12 @@
       <c r="Y15" s="97"/>
       <c r="Z15" s="97"/>
     </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="57">
         <v>14</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="58">
         <v>526251060168</v>
@@ -2446,7 +2492,7 @@
         <v>63</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J16" s="88" t="s">
         <v>34</v>
@@ -2458,20 +2504,20 @@
         <v>81</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N16" s="61" t="s">
         <v>26</v>
       </c>
       <c r="O16" s="62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="63">
         <v>44762</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S16" s="59"/>
       <c r="T16" s="59"/>
@@ -2482,21 +2528,21 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="94" customFormat="1">
       <c r="A17" s="94">
         <v>15</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" s="96">
         <v>526251059200</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="97" t="s">
         <v>21</v>
@@ -2506,7 +2552,7 @@
       </c>
       <c r="H17" s="97"/>
       <c r="I17" s="97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J17" s="97" t="s">
         <v>22</v>
@@ -2515,16 +2561,16 @@
         <v>23</v>
       </c>
       <c r="L17" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="99" t="s">
         <v>119</v>
-      </c>
-      <c r="M17" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="99" t="s">
-        <v>122</v>
       </c>
       <c r="P17" s="100">
         <v>44647</v>
@@ -2540,12 +2586,12 @@
       <c r="Y17" s="97"/>
       <c r="Z17" s="97"/>
     </row>
-    <row r="18" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="82" customFormat="1">
       <c r="A18" s="82">
         <v>16</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="103">
         <v>526251020790</v>
@@ -2564,7 +2610,7 @@
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J18" s="81" t="s">
         <v>22</v>
@@ -2573,16 +2619,16 @@
         <v>23</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O18" s="84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P18" s="85">
         <v>44647</v>
@@ -2597,12 +2643,12 @@
       <c r="Y18" s="81"/>
       <c r="Z18" s="81"/>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="61">
         <v>17</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="78">
         <v>526251020642</v>
@@ -2621,7 +2667,7 @@
       </c>
       <c r="H19" s="59"/>
       <c r="I19" s="59" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J19" s="88" t="s">
         <v>34</v>
@@ -2645,12 +2691,12 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
     </row>
-    <row r="20" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="11" customFormat="1">
       <c r="A20" s="65">
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="67">
         <v>526251579804</v>
@@ -2669,7 +2715,7 @@
       </c>
       <c r="H20" s="68"/>
       <c r="I20" s="68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J20" s="89" t="s">
         <v>34</v>
@@ -2693,51 +2739,51 @@
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="J21" s="90"/>
     </row>
-    <row r="22" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="29" customFormat="1">
       <c r="B22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K22" s="46" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M22" s="51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N22" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="O22" s="47" t="s">
-        <v>134</v>
       </c>
       <c r="R22" s="50"/>
       <c r="S22" s="38"/>
@@ -2763,41 +2809,41 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="12" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.5" style="12" customWidth="1"/>
-    <col min="20" max="21" width="19.1640625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="60.33203125" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="11.5" style="12"/>
+    <col min="9" max="9" width="39.36328125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="19.1796875" style="12" customWidth="1"/>
+    <col min="22" max="22" width="60.36328125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="11.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2835,25 +2881,25 @@
         <v>15</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>16</v>
@@ -2865,38 +2911,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="10" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="K3" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="L3" s="22" t="s">
         <v>146</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>149</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -2912,45 +2958,45 @@
         <v>28</v>
       </c>
       <c r="V3" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="11" customFormat="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="20">
         <v>526251020596</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="9"/>
@@ -2962,46 +3008,46 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="56">
         <v>3</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="20">
         <v>526251020266</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -3013,23 +3059,173 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB7854F-18FF-49C7-8724-56DDDC24C589}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10" style="12" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="12" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.36328125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1">
+      <c r="A2" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="146" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="146" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="146" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="139" customFormat="1">
+      <c r="A3" s="139">
+        <v>1</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="142">
+        <v>526251259145</v>
+      </c>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="144">
+        <v>45388</v>
+      </c>
+      <c r="M3" s="144">
+        <v>45753</v>
+      </c>
+      <c r="N3" s="145"/>
+    </row>
+    <row r="4" spans="1:22" s="130" customFormat="1">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="23"/>
+      <c r="K4" s="135"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="133"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="133"/>
+    </row>
+    <row r="5" spans="1:22" s="139" customFormat="1">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="135"/>
+      <c r="N5" s="140"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3037,16 +3233,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="124" customFormat="1">
       <c r="A2" s="124" t="s">
         <v>18</v>
       </c>
@@ -3060,22 +3256,22 @@
         <v>18</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G2" s="124" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="124" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="124" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J2" s="124" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="110" customFormat="1">
       <c r="A3" s="107" t="s">
         <v>39</v>
       </c>
@@ -3089,19 +3285,19 @@
         <v>18</v>
       </c>
       <c r="E3" s="109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G3" s="110" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I3" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3115,16 +3311,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G4" s="106" t="s">
         <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="110" customFormat="1">
       <c r="A5" s="107" t="s">
         <v>92</v>
       </c>
@@ -3138,42 +3334,42 @@
         <v>18</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G5" s="110" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H5" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I5" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="126" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="127">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="128" customFormat="1">
+      <c r="A6" s="125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="126">
         <v>526251059200</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="127">
         <v>32845132</v>
       </c>
-      <c r="D6" s="128">
+      <c r="D6" s="127">
         <v>18</v>
       </c>
-      <c r="E6" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="129" t="s">
+      <c r="E6" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="128" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3187,16 +3383,16 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G7" s="106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="110" customFormat="1">
       <c r="A8" s="111" t="s">
         <v>50</v>
       </c>
@@ -3210,19 +3406,19 @@
         <v>18</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G8" s="110" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I8" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="110" customFormat="1">
       <c r="A9" s="107" t="s">
         <v>30</v>
       </c>
@@ -3236,19 +3432,19 @@
         <v>18</v>
       </c>
       <c r="E9" s="109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G9" s="110" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I9" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="110" customFormat="1">
       <c r="A10" s="111" t="s">
         <v>55</v>
       </c>
@@ -3262,21 +3458,21 @@
         <v>18</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G10" s="110" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I10" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B11" s="6">
         <v>526251060168</v>
@@ -3288,39 +3484,39 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G11" s="106" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="126" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="127">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="128" customFormat="1">
+      <c r="A12" s="125" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="126">
         <v>526251037317</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="127">
         <v>32848094</v>
       </c>
-      <c r="D12" s="128">
+      <c r="D12" s="127">
         <v>32</v>
       </c>
-      <c r="E12" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="129" t="s">
+      <c r="E12" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="128" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="110" customFormat="1">
       <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
@@ -3334,19 +3530,19 @@
         <v>32</v>
       </c>
       <c r="E13" s="109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G13" s="110" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I13" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="121" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="121" customFormat="1">
       <c r="A14" s="118" t="s">
         <v>60</v>
       </c>
@@ -3360,21 +3556,21 @@
         <v>32</v>
       </c>
       <c r="E14" s="120" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G14" s="122" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H14" s="121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J14" s="123" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" s="6">
         <v>526251579804</v>
@@ -3386,16 +3582,16 @@
         <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G15" s="105" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="110" customFormat="1">
       <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
@@ -3409,58 +3605,58 @@
         <v>32</v>
       </c>
       <c r="E16" s="116" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F16" s="117"/>
       <c r="G16" s="117" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H16" s="117" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I16" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="129" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="128" customFormat="1">
+      <c r="A17" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="127">
+      <c r="B17" s="126">
         <v>526251020232</v>
       </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="129" t="s">
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="129" t="s">
+      <c r="J17" s="128" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3">
         <v>526251020790</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G18" s="106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="6">
         <v>526251020642</v>
@@ -3468,56 +3664,56 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G19" s="105" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="110" customFormat="1">
       <c r="A20" s="110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" s="112">
         <v>526251020596</v>
       </c>
       <c r="E20" s="113" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I20" s="110" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="124" customFormat="1">
       <c r="A21" s="124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" s="119">
         <v>526251020266</v>
       </c>
       <c r="E21" s="124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21" s="124" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H21" s="124" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I21" s="124" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmesantiesteban/Documents/GitHub/dta-agricola/Documentación/Empresa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9114A6E-FE0E-4E31-9511-643B6FD22070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B583CEC-A7AB-0C4F-815F-F4194135DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="577" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" tabRatio="577" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="186">
   <si>
     <t>Observaciones</t>
   </si>
@@ -569,13 +569,25 @@
   </si>
   <si>
     <t>Sensores Campo 27</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>AG7 Xtreme</t>
+  </si>
+  <si>
+    <t>http://dtaamerica.com/ws/commj_v2.php</t>
+  </si>
+  <si>
+    <t>{2, 3, 6, 52, 625, 157, 9804}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +767,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -842,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1208,69 +1229,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1553,43 +1548,43 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="31.36328125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.36328125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" style="12" customWidth="1"/>
-    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="60.36328125" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.1796875" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="11.453125" style="12"/>
+    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" style="12" customWidth="1"/>
+    <col min="16" max="17" width="19.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.33203125" style="13" customWidth="1"/>
+    <col min="19" max="26" width="12.1640625" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="11.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="R1" s="129" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-    </row>
-    <row r="2" spans="1:26" s="9" customFormat="1">
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1">
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -1729,7 +1724,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="82" customFormat="1" ht="29">
+    <row r="4" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -1791,7 +1786,7 @@
       <c r="Y4" s="81"/>
       <c r="Z4" s="81"/>
     </row>
-    <row r="5" spans="1:26" s="82" customFormat="1" ht="29">
+    <row r="5" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -1853,7 +1848,7 @@
       <c r="Y5" s="81"/>
       <c r="Z5" s="81"/>
     </row>
-    <row r="6" spans="1:26" s="82" customFormat="1">
+    <row r="6" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="82">
         <v>4</v>
       </c>
@@ -1915,7 +1910,7 @@
       <c r="Y6" s="81"/>
       <c r="Z6" s="81"/>
     </row>
-    <row r="7" spans="1:26" s="82" customFormat="1">
+    <row r="7" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="82">
         <v>5</v>
       </c>
@@ -1977,7 +1972,7 @@
       <c r="Y7" s="81"/>
       <c r="Z7" s="81"/>
     </row>
-    <row r="8" spans="1:26" s="82" customFormat="1">
+    <row r="8" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="82">
         <v>6</v>
       </c>
@@ -2039,7 +2034,7 @@
       <c r="Y8" s="81"/>
       <c r="Z8" s="81"/>
     </row>
-    <row r="9" spans="1:26" s="82" customFormat="1">
+    <row r="9" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="82">
         <v>7</v>
       </c>
@@ -2095,7 +2090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="27" customFormat="1">
+    <row r="10" spans="1:26" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -2156,7 +2151,7 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
     </row>
-    <row r="11" spans="1:26" s="28" customFormat="1">
+    <row r="11" spans="1:26" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -2216,7 +2211,7 @@
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
     </row>
-    <row r="12" spans="1:26" s="82" customFormat="1">
+    <row r="12" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="82">
         <v>10</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="82" customFormat="1">
+    <row r="13" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="82">
         <v>11</v>
       </c>
@@ -2354,7 +2349,7 @@
       <c r="Y13" s="81"/>
       <c r="Z13" s="81"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="29">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="61">
         <v>12</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="94" customFormat="1">
+    <row r="15" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="94">
         <v>13</v>
       </c>
@@ -2466,7 +2461,7 @@
       <c r="Y15" s="97"/>
       <c r="Z15" s="97"/>
     </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57">
         <v>14</v>
       </c>
@@ -2528,7 +2523,7 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" s="94" customFormat="1">
+    <row r="17" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="94">
         <v>15</v>
       </c>
@@ -2586,7 +2581,7 @@
       <c r="Y17" s="97"/>
       <c r="Z17" s="97"/>
     </row>
-    <row r="18" spans="1:26" s="82" customFormat="1">
+    <row r="18" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="82">
         <v>16</v>
       </c>
@@ -2643,7 +2638,7 @@
       <c r="Y18" s="81"/>
       <c r="Z18" s="81"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="61">
         <v>17</v>
       </c>
@@ -2691,7 +2686,7 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
     </row>
-    <row r="20" spans="1:26" s="11" customFormat="1">
+    <row r="20" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
         <v>19</v>
       </c>
@@ -2739,10 +2734,10 @@
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J21" s="90"/>
     </row>
-    <row r="22" spans="1:26" s="29" customFormat="1">
+    <row r="22" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="38" t="s">
         <v>128</v>
       </c>
@@ -2806,44 +2801,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="174" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="12" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="39.36328125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="12" customWidth="1"/>
-    <col min="20" max="21" width="19.1796875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="60.36328125" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="11.453125" style="12"/>
+    <col min="9" max="9" width="39.33203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.5" style="12" customWidth="1"/>
+    <col min="20" max="21" width="19.1640625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="60.33203125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="11.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1">
+    <row r="2" spans="1:30" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="10" customFormat="1">
+    <row r="3" spans="1:30" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2961,7 +2956,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="11" customFormat="1">
+    <row r="4" spans="1:30" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -3008,7 +3003,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>3</v>
       </c>
@@ -3045,6 +3040,36 @@
       <c r="L5" s="55" t="s">
         <v>163</v>
       </c>
+    </row>
+    <row r="6" spans="1:30" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="140" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="138">
+        <v>526251579804</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -3052,9 +3077,10 @@
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="I5" r:id="rId3" xr:uid="{16519EE7-4051-4780-87AD-CED1BB134DEF}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{6990E974-38A0-A345-9772-2F749459412B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3062,149 +3088,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB7854F-18FF-49C7-8724-56DDDC24C589}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="12" customWidth="1"/>
-    <col min="12" max="13" width="10.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.36328125" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="11.453125" style="12"/>
+    <col min="6" max="6" width="22.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="12" customWidth="1"/>
+    <col min="12" max="13" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.33203125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1">
-      <c r="A2" s="146" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="146" t="s">
+      <c r="J2" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="146" t="s">
+      <c r="K2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="146" t="s">
+      <c r="L2" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="146" t="s">
+      <c r="M2" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="147" t="s">
+      <c r="N2" s="134" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="139" customFormat="1">
-      <c r="A3" s="139">
+    <row r="3" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="142">
+      <c r="C3" s="130">
         <v>526251259145</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="9" t="s">
         <v>178</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="144">
+      <c r="L3" s="131">
         <v>45388</v>
       </c>
-      <c r="M3" s="144">
+      <c r="M3" s="131">
         <v>45753</v>
       </c>
-      <c r="N3" s="145"/>
-    </row>
-    <row r="4" spans="1:22" s="130" customFormat="1">
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
+      <c r="N3" s="132"/>
+    </row>
+    <row r="4" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="23"/>
-      <c r="K4" s="135"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-    </row>
-    <row r="5" spans="1:22" s="139" customFormat="1">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="134"/>
+      <c r="K4" s="55"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="135"/>
-      <c r="N5" s="140"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{AD7894B8-B8F4-1E45-836B-917BFCBD4144}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3212,20 +3240,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3242,7 +3270,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="124" customFormat="1">
+    <row r="2" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
         <v>18</v>
       </c>
@@ -3271,7 +3299,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="110" customFormat="1">
+    <row r="3" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="107" t="s">
         <v>39</v>
       </c>
@@ -3297,7 +3325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3320,7 +3348,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="110" customFormat="1">
+    <row r="5" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="107" t="s">
         <v>92</v>
       </c>
@@ -3346,7 +3374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="128" customFormat="1">
+    <row r="6" spans="1:10" s="128" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="125" t="s">
         <v>112</v>
       </c>
@@ -3369,7 +3397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3392,7 +3420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="110" customFormat="1">
+    <row r="8" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="111" t="s">
         <v>50</v>
       </c>
@@ -3418,7 +3446,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="110" customFormat="1">
+    <row r="9" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="107" t="s">
         <v>30</v>
       </c>
@@ -3444,7 +3472,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="110" customFormat="1">
+    <row r="10" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
         <v>55</v>
       </c>
@@ -3470,7 +3498,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
@@ -3493,7 +3521,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="128" customFormat="1">
+    <row r="12" spans="1:10" s="128" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="125" t="s">
         <v>101</v>
       </c>
@@ -3516,7 +3544,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="110" customFormat="1">
+    <row r="13" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
@@ -3542,7 +3570,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="121" customFormat="1">
+    <row r="14" spans="1:10" s="121" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="118" t="s">
         <v>60</v>
       </c>
@@ -3568,7 +3596,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3584,14 +3612,14 @@
       <c r="E15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="105" t="s">
-        <v>128</v>
+      <c r="G15" s="137" t="s">
+        <v>182</v>
       </c>
       <c r="H15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="110" customFormat="1">
+    <row r="16" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
@@ -3618,7 +3646,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="128" customFormat="1">
+    <row r="17" spans="1:10" s="128" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="125" t="s">
         <v>78</v>
       </c>
@@ -3637,7 +3665,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3654,7 +3682,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
@@ -3673,7 +3701,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="110" customFormat="1">
+    <row r="20" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="110" t="s">
         <v>148</v>
       </c>
@@ -3693,7 +3721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="124" customFormat="1">
+    <row r="21" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="124" t="s">
         <v>157</v>
       </c>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cosmesantiesteban/Documents/GitHub/dta-agricola/Documentación/Empresa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B583CEC-A7AB-0C4F-815F-F4194135DF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7328BCC9-59A8-470A-A146-39AE08B8ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" tabRatio="577" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="577" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Relación de líneas" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="193">
   <si>
     <t>Observaciones</t>
   </si>
@@ -559,9 +560,6 @@
     <t>http://dtaamerica.com/ws/sensor_v1.php</t>
   </si>
   <si>
-    <t>LoRa_Gateway_v3</t>
-  </si>
-  <si>
     <t>{2, 3, 1, 52, 625, 125, 9145}</t>
   </si>
   <si>
@@ -580,19 +578,50 @@
     <t>http://dtaamerica.com/ws/commj_v2.php</t>
   </si>
   <si>
-    <t>{2, 3, 6, 52, 625, 157, 9804}</t>
+    <t>AG7 eco</t>
+  </si>
+  <si>
+    <t>Meoqui</t>
+  </si>
+  <si>
+    <t>AG07 eco</t>
+  </si>
+  <si>
+    <t>{2, 3, 7, 52, 625, 153, 1996}</t>
+  </si>
+  <si>
+    <t>{2, 3, 7, 52, 625, 157, 9804}</t>
+  </si>
+  <si>
+    <t>{2, 3, 1, 52, 625, 106, 0168}</t>
+  </si>
+  <si>
+    <t>LoRa_Gateway_v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo </t>
+  </si>
+  <si>
+    <t>Maniquipa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,13 +888,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -887,13 +916,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -902,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -914,22 +943,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -938,274 +967,274 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1216,19 +1245,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1241,31 +1270,40 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1548,43 +1586,43 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="12" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.83203125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" style="12" customWidth="1"/>
-    <col min="16" max="17" width="19.1640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="60.33203125" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.1640625" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="11.5" style="12"/>
+    <col min="6" max="6" width="6.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="12" customWidth="1"/>
+    <col min="16" max="17" width="19.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.42578125" style="13" customWidth="1"/>
+    <col min="19" max="26" width="12.140625" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="R1" s="136" t="s">
+    <row r="1" spans="1:26">
+      <c r="R1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-    </row>
-    <row r="2" spans="1:26" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="143"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="11" customFormat="1">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -1724,7 +1762,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="82" customFormat="1" ht="30">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -1786,7 +1824,7 @@
       <c r="Y4" s="81"/>
       <c r="Z4" s="81"/>
     </row>
-    <row r="5" spans="1:26" s="82" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="82" customFormat="1" ht="30">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -1848,7 +1886,7 @@
       <c r="Y5" s="81"/>
       <c r="Z5" s="81"/>
     </row>
-    <row r="6" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="82" customFormat="1">
       <c r="A6" s="82">
         <v>4</v>
       </c>
@@ -1910,7 +1948,7 @@
       <c r="Y6" s="81"/>
       <c r="Z6" s="81"/>
     </row>
-    <row r="7" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" s="82" customFormat="1">
       <c r="A7" s="82">
         <v>5</v>
       </c>
@@ -1972,7 +2010,7 @@
       <c r="Y7" s="81"/>
       <c r="Z7" s="81"/>
     </row>
-    <row r="8" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="82" customFormat="1">
       <c r="A8" s="82">
         <v>6</v>
       </c>
@@ -2034,7 +2072,7 @@
       <c r="Y8" s="81"/>
       <c r="Z8" s="81"/>
     </row>
-    <row r="9" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" s="82" customFormat="1">
       <c r="A9" s="82">
         <v>7</v>
       </c>
@@ -2090,7 +2128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="27" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" s="27" customFormat="1">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -2151,7 +2189,7 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
     </row>
-    <row r="11" spans="1:26" s="28" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" s="28" customFormat="1">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -2211,7 +2249,7 @@
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
     </row>
-    <row r="12" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" s="82" customFormat="1">
       <c r="A12" s="82">
         <v>10</v>
       </c>
@@ -2289,7 +2327,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" s="82" customFormat="1">
       <c r="A13" s="82">
         <v>11</v>
       </c>
@@ -2349,7 +2387,7 @@
       <c r="Y13" s="81"/>
       <c r="Z13" s="81"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="30">
       <c r="A14" s="61">
         <v>12</v>
       </c>
@@ -2399,7 +2437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" s="94" customFormat="1">
       <c r="A15" s="94">
         <v>13</v>
       </c>
@@ -2461,7 +2499,7 @@
       <c r="Y15" s="97"/>
       <c r="Z15" s="97"/>
     </row>
-    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" s="28" customFormat="1" ht="48" customHeight="1">
       <c r="A16" s="57">
         <v>14</v>
       </c>
@@ -2523,7 +2561,7 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" s="94" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" s="94" customFormat="1">
       <c r="A17" s="94">
         <v>15</v>
       </c>
@@ -2581,7 +2619,7 @@
       <c r="Y17" s="97"/>
       <c r="Z17" s="97"/>
     </row>
-    <row r="18" spans="1:26" s="82" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="82" customFormat="1">
       <c r="A18" s="82">
         <v>16</v>
       </c>
@@ -2638,7 +2676,7 @@
       <c r="Y18" s="81"/>
       <c r="Z18" s="81"/>
     </row>
-    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="61">
         <v>17</v>
       </c>
@@ -2686,7 +2724,7 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
     </row>
-    <row r="20" spans="1:26" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="11" customFormat="1">
       <c r="A20" s="65">
         <v>19</v>
       </c>
@@ -2734,10 +2772,10 @@
       <c r="Y20" s="68"/>
       <c r="Z20" s="68"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="J21" s="90"/>
     </row>
-    <row r="22" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="29" customFormat="1">
       <c r="B22" s="38" t="s">
         <v>128</v>
       </c>
@@ -2801,44 +2839,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="174" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.5" style="12" customWidth="1"/>
-    <col min="20" max="21" width="19.1640625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="60.33203125" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="11.5" style="12"/>
+    <col min="9" max="9" width="39.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="19.140625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="60.42578125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="V1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2906,7 +2944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="10" customFormat="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2956,7 +2994,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="11" customFormat="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2967,7 +3005,7 @@
         <v>526251020596</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>140</v>
@@ -3003,7 +3041,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30">
       <c r="A5" s="56">
         <v>3</v>
       </c>
@@ -3041,15 +3079,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="140" t="s">
+    <row r="6" spans="1:30" s="11" customFormat="1">
+      <c r="B6" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="137">
         <v>526251579804</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>140</v>
@@ -3058,29 +3096,66 @@
         <v>21</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="139" t="s">
+      <c r="I6" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="26"/>
+    </row>
+    <row r="7" spans="1:30" s="11" customFormat="1">
+      <c r="B7" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="141">
+        <v>526251531996</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="26"/>
+      <c r="E7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="I5" r:id="rId3" xr:uid="{16519EE7-4051-4780-87AD-CED1BB134DEF}"/>
     <hyperlink ref="I6" r:id="rId4" xr:uid="{6990E974-38A0-A345-9772-2F749459412B}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{36083BA5-CC91-4ADD-AECC-BF98768F8FDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3088,32 +3163,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB7854F-18FF-49C7-8724-56DDDC24C589}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="12" customWidth="1"/>
-    <col min="12" max="13" width="10.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.33203125" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="11.5" style="12"/>
+    <col min="6" max="6" width="22.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="12" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.42578125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="9" customFormat="1">
       <c r="A2" s="133" t="s">
         <v>1</v>
       </c>
@@ -3157,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="30">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3170,10 +3245,10 @@
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>177</v>
@@ -3182,10 +3257,10 @@
         <v>176</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K3" s="135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L3" s="131">
         <v>45388</v>
@@ -3195,14 +3270,30 @@
       </c>
       <c r="N3" s="132"/>
     </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="30">
+      <c r="B4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6">
+        <v>526251060168</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="142" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="K4" s="55"/>
       <c r="N4" s="26"/>
       <c r="O4" s="9"/>
@@ -3214,7 +3305,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="54"/>
       <c r="B5" s="53"/>
       <c r="C5" s="20"/>
@@ -3228,11 +3319,13 @@
       <c r="K5" s="55"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{AD7894B8-B8F4-1E45-836B-917BFCBD4144}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{313C09CD-D478-423F-AE25-F6F2E13CB141}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3241,19 +3334,19 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +3363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="124" customFormat="1">
       <c r="A2" s="124" t="s">
         <v>18</v>
       </c>
@@ -3299,7 +3392,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A3" s="107" t="s">
         <v>39</v>
       </c>
@@ -3325,7 +3418,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3348,7 +3441,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A5" s="107" t="s">
         <v>92</v>
       </c>
@@ -3374,7 +3467,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="128" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="128" customFormat="1" ht="30">
       <c r="A6" s="125" t="s">
         <v>112</v>
       </c>
@@ -3397,7 +3490,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3420,7 +3513,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A8" s="111" t="s">
         <v>50</v>
       </c>
@@ -3446,7 +3539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A9" s="107" t="s">
         <v>30</v>
       </c>
@@ -3472,7 +3565,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A10" s="111" t="s">
         <v>55</v>
       </c>
@@ -3498,7 +3591,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
@@ -3521,7 +3614,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="128" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="128" customFormat="1" ht="30">
       <c r="A12" s="125" t="s">
         <v>101</v>
       </c>
@@ -3544,7 +3637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
@@ -3570,7 +3663,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="121" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="121" customFormat="1" ht="30">
       <c r="A14" s="118" t="s">
         <v>60</v>
       </c>
@@ -3596,7 +3689,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3612,14 +3705,14 @@
       <c r="E15" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="137" t="s">
-        <v>182</v>
+      <c r="G15" s="136" t="s">
+        <v>181</v>
       </c>
       <c r="H15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
@@ -3646,7 +3739,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="128" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="128" customFormat="1" ht="30">
       <c r="A17" s="125" t="s">
         <v>78</v>
       </c>
@@ -3665,7 +3758,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3682,7 +3775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
@@ -3701,7 +3794,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="110" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="110" customFormat="1" ht="30">
       <c r="A20" s="110" t="s">
         <v>148</v>
       </c>
@@ -3721,7 +3814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="124" customFormat="1">
       <c r="A21" s="124" t="s">
         <v>157</v>
       </c>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7328BCC9-59A8-470A-A146-39AE08B8ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8203E8-4D0C-4353-A944-CABF3928B71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="577" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="577" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Relación de líneas" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -560,9 +559,6 @@
     <t>http://dtaamerica.com/ws/sensor_v1.php</t>
   </si>
   <si>
-    <t>{2, 3, 1, 52, 625, 125, 9145}</t>
-  </si>
-  <si>
     <t>[28.405038, -106.895213]</t>
   </si>
   <si>
@@ -593,9 +589,6 @@
     <t>{2, 3, 7, 52, 625, 157, 9804}</t>
   </si>
   <si>
-    <t>{2, 3, 1, 52, 625, 106, 0168}</t>
-  </si>
-  <si>
     <t>LoRa_Gateway_v4</t>
   </si>
   <si>
@@ -603,6 +596,12 @@
   </si>
   <si>
     <t>Maniquipa</t>
+  </si>
+  <si>
+    <t>{2, 3, 52, 625, 125, 9145}</t>
+  </si>
+  <si>
+    <t>{2, 3, 52, 625, 106, 0168}</t>
   </si>
 </sst>
 </file>
@@ -1295,11 +1294,11 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1586,41 +1585,41 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="12" customWidth="1"/>
-    <col min="16" max="17" width="19.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="60.42578125" style="13" customWidth="1"/>
-    <col min="19" max="26" width="12.140625" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="11.42578125" style="12"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="12" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="60.453125" style="13" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="11.453125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="143" t="s">
+      <c r="R1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -1762,7 +1761,7 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="4" spans="1:26" s="82" customFormat="1" ht="30">
+    <row r="4" spans="1:26" s="82" customFormat="1" ht="29">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -1824,7 +1823,7 @@
       <c r="Y4" s="81"/>
       <c r="Z4" s="81"/>
     </row>
-    <row r="5" spans="1:26" s="82" customFormat="1" ht="30">
+    <row r="5" spans="1:26" s="82" customFormat="1" ht="29">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -2387,7 +2386,7 @@
       <c r="Y13" s="81"/>
       <c r="Z13" s="81"/>
     </row>
-    <row r="14" spans="1:26" s="28" customFormat="1" ht="30">
+    <row r="14" spans="1:26" s="28" customFormat="1" ht="29">
       <c r="A14" s="61">
         <v>12</v>
       </c>
@@ -2841,34 +2840,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="12" customWidth="1"/>
     <col min="8" max="8" width="14" style="12" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="12" customWidth="1"/>
-    <col min="20" max="21" width="19.140625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="60.42578125" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="12"/>
+    <col min="9" max="9" width="39.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="19.1796875" style="12" customWidth="1"/>
+    <col min="22" max="22" width="60.453125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="11.453125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -3005,7 +3004,7 @@
         <v>526251020596</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>140</v>
@@ -3087,7 +3086,7 @@
         <v>526251579804</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>140</v>
@@ -3096,19 +3095,19 @@
         <v>21</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V6" s="26"/>
     </row>
@@ -3120,7 +3119,7 @@
         <v>526251531996</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>140</v>
@@ -3129,19 +3128,19 @@
         <v>21</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>164</v>
       </c>
       <c r="I7" s="138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V7" s="26"/>
     </row>
@@ -3163,26 +3162,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB7854F-18FF-49C7-8724-56DDDC24C589}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="12" customWidth="1"/>
     <col min="2" max="2" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="12" customWidth="1"/>
-    <col min="12" max="13" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.42578125" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="12"/>
+    <col min="6" max="6" width="22.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="12" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.453125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -3232,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="30">
+    <row r="3" spans="1:22">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -3245,10 +3244,10 @@
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>177</v>
@@ -3257,10 +3256,10 @@
         <v>176</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L3" s="131">
         <v>45388</v>
@@ -3270,7 +3269,7 @@
       </c>
       <c r="N3" s="132"/>
     </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="30">
+    <row r="4" spans="1:22" s="11" customFormat="1">
       <c r="B4" s="5" t="s">
         <v>107</v>
       </c>
@@ -3279,20 +3278,20 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="52"/>
-      <c r="F4" s="142" t="s">
-        <v>189</v>
+      <c r="F4" s="143" t="s">
+        <v>192</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>177</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K4" s="55"/>
       <c r="N4" s="26"/>
@@ -3337,13 +3336,13 @@
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3392,7 +3391,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="3" spans="1:10" s="110" customFormat="1">
       <c r="A3" s="107" t="s">
         <v>39</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="5" spans="1:10" s="110" customFormat="1">
       <c r="A5" s="107" t="s">
         <v>92</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="128" customFormat="1" ht="30">
+    <row r="6" spans="1:10" s="128" customFormat="1">
       <c r="A6" s="125" t="s">
         <v>112</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
+    <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="8" spans="1:10" s="110" customFormat="1">
       <c r="A8" s="111" t="s">
         <v>50</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="9" spans="1:10" s="110" customFormat="1">
       <c r="A9" s="107" t="s">
         <v>30</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="10" spans="1:10" s="110" customFormat="1">
       <c r="A10" s="111" t="s">
         <v>55</v>
       </c>
@@ -3591,7 +3590,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="128" customFormat="1" ht="30">
+    <row r="12" spans="1:10" s="128" customFormat="1">
       <c r="A12" s="125" t="s">
         <v>101</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="13" spans="1:10" s="110" customFormat="1">
       <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="121" customFormat="1" ht="30">
+    <row r="14" spans="1:10" s="121" customFormat="1">
       <c r="A14" s="118" t="s">
         <v>60</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>126</v>
       </c>
@@ -3706,13 +3705,13 @@
         <v>155</v>
       </c>
       <c r="G15" s="136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="16" spans="1:10" s="110" customFormat="1">
       <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="128" customFormat="1" ht="30">
+    <row r="17" spans="1:10" s="128" customFormat="1">
       <c r="A17" s="125" t="s">
         <v>78</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="110" customFormat="1" ht="30">
+    <row r="20" spans="1:10" s="110" customFormat="1">
       <c r="A20" s="110" t="s">
         <v>148</v>
       </c>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cosme\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8203E8-4D0C-4353-A944-CABF3928B71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D8F18-6939-4170-ACD6-B91D2CAAB78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="577" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" tabRatio="577" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -891,7 +891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1288,17 +1288,29 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,17 +1621,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="142" t="s">
+      <c r="R1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="142"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1">
       <c r="A2" s="9" t="s">
@@ -2840,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -3111,38 +3123,38 @@
       </c>
       <c r="V6" s="26"/>
     </row>
-    <row r="7" spans="1:30" s="11" customFormat="1">
-      <c r="B7" s="140" t="s">
+    <row r="7" spans="1:30" s="142" customFormat="1">
+      <c r="B7" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="144">
         <v>526251531996</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="145" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="142" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="V7" s="26"/>
+      <c r="V7" s="147"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
@@ -3162,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB7854F-18FF-49C7-8724-56DDDC24C589}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -3278,7 +3290,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="52"/>
-      <c r="F4" s="143" t="s">
+      <c r="F4" s="140" t="s">
         <v>192</v>
       </c>
       <c r="G4" s="9" t="s">

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297343ED-174F-47B1-AE28-55F29CAE2C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7170" tabRatio="577" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -22,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -582,12 +586,6 @@
     <t>Campo 27</t>
   </si>
   <si>
-    <t>Cosme</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
     <t>Bernardo</t>
   </si>
   <si>
@@ -613,19 +611,19 @@
   </si>
   <si>
     <t>Nieves - Belisario</t>
+  </si>
+  <si>
+    <t>Francisco Teran</t>
+  </si>
+  <si>
+    <t>UNIFRUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,144 +737,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,7 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,194 +829,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1171,253 +847,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1432,10 +869,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1444,10 +881,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1554,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1572,13 +1009,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1638,28 +1075,28 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1773,46 +1210,46 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1821,7 +1258,7 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1839,7 +1276,7 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1848,22 +1285,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1884,62 +1321,22 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Coma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
-    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
-    <cellStyle name="Nota" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Salida" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
-    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
-    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
-    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
-    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
-    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
-    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
-    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2197,59 +1594,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.18095238095238" style="98" customWidth="1"/>
-    <col min="2" max="2" width="22.4761904761905" style="98" customWidth="1"/>
-    <col min="3" max="3" width="15.2666666666667" style="98" customWidth="1"/>
-    <col min="4" max="4" width="17.1809523809524" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="98" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="98" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="98" customWidth="1"/>
     <col min="5" max="5" width="10" style="98" customWidth="1"/>
-    <col min="6" max="6" width="6.81904761904762" style="98" customWidth="1"/>
-    <col min="7" max="7" width="7.45714285714286" style="98" customWidth="1"/>
-    <col min="8" max="8" width="8.45714285714286" style="98" customWidth="1"/>
-    <col min="9" max="9" width="31.4571428571429" style="98" customWidth="1"/>
-    <col min="10" max="10" width="19.4571428571429" style="98" customWidth="1"/>
-    <col min="11" max="11" width="37.8190476190476" style="98" customWidth="1"/>
-    <col min="12" max="12" width="15.4571428571429" style="98" customWidth="1"/>
-    <col min="13" max="13" width="20.4571428571429" style="98" customWidth="1"/>
-    <col min="14" max="14" width="10.8190476190476" style="98" customWidth="1"/>
-    <col min="15" max="15" width="26.1809523809524" style="98" customWidth="1"/>
-    <col min="16" max="17" width="19.1809523809524" style="98" customWidth="1"/>
-    <col min="18" max="18" width="60.4571428571429" style="99" customWidth="1"/>
-    <col min="19" max="26" width="12.1809523809524" style="55" customWidth="1"/>
-    <col min="27" max="16384" width="11.4571428571429" style="98"/>
+    <col min="6" max="6" width="6.81640625" style="98" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="98" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="98" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="98" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="98" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" style="98" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="98" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="98" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="98" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="98" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="98" customWidth="1"/>
+    <col min="18" max="18" width="60.453125" style="99" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="55" customWidth="1"/>
+    <col min="27" max="16384" width="11.453125" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="18:26">
-      <c r="R1" s="67" t="s">
+    <row r="1" spans="1:26">
+      <c r="R1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-    </row>
-    <row r="2" s="43" customFormat="1" spans="1:26">
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+    </row>
+    <row r="2" spans="1:26" s="43" customFormat="1">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="65" customFormat="1" spans="1:26">
+    <row r="3" spans="1:26" s="65" customFormat="1">
       <c r="A3" s="64">
         <v>1</v>
       </c>
@@ -2389,7 +1785,7 @@
       <c r="Y3" s="74"/>
       <c r="Z3" s="74"/>
     </row>
-    <row r="4" s="91" customFormat="1" ht="30" spans="1:26">
+    <row r="4" spans="1:26" s="91" customFormat="1" ht="29">
       <c r="A4" s="91">
         <v>2</v>
       </c>
@@ -2451,7 +1847,7 @@
       <c r="Y4" s="105"/>
       <c r="Z4" s="105"/>
     </row>
-    <row r="5" s="65" customFormat="1" ht="30" spans="1:26">
+    <row r="5" spans="1:26" s="65" customFormat="1" ht="29">
       <c r="A5" s="65">
         <v>3</v>
       </c>
@@ -2513,7 +1909,7 @@
       <c r="Y5" s="74"/>
       <c r="Z5" s="74"/>
     </row>
-    <row r="6" s="65" customFormat="1" spans="1:26">
+    <row r="6" spans="1:26" s="65" customFormat="1">
       <c r="A6" s="65">
         <v>4</v>
       </c>
@@ -2575,7 +1971,7 @@
       <c r="Y6" s="74"/>
       <c r="Z6" s="74"/>
     </row>
-    <row r="7" s="65" customFormat="1" spans="1:26">
+    <row r="7" spans="1:26" s="65" customFormat="1">
       <c r="A7" s="65">
         <v>5</v>
       </c>
@@ -2637,7 +2033,7 @@
       <c r="Y7" s="74"/>
       <c r="Z7" s="74"/>
     </row>
-    <row r="8" s="65" customFormat="1" spans="1:26">
+    <row r="8" spans="1:26" s="65" customFormat="1">
       <c r="A8" s="65" t="s">
         <v>55</v>
       </c>
@@ -2699,7 +2095,7 @@
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
     </row>
-    <row r="9" s="92" customFormat="1" spans="1:18">
+    <row r="9" spans="1:26" s="92" customFormat="1">
       <c r="A9" s="92">
         <v>7</v>
       </c>
@@ -2755,7 +2151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" s="93" customFormat="1" spans="1:26">
+    <row r="10" spans="1:26" s="93" customFormat="1">
       <c r="A10" s="93">
         <v>8</v>
       </c>
@@ -2816,7 +2212,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="112"/>
     </row>
-    <row r="11" s="94" customFormat="1" spans="1:26">
+    <row r="11" spans="1:26" s="94" customFormat="1">
       <c r="A11" s="94">
         <v>9</v>
       </c>
@@ -2875,7 +2271,7 @@
       <c r="Y11" s="115"/>
       <c r="Z11" s="115"/>
     </row>
-    <row r="12" s="92" customFormat="1" spans="1:26">
+    <row r="12" spans="1:26" s="92" customFormat="1">
       <c r="A12" s="92">
         <v>10</v>
       </c>
@@ -2953,7 +2349,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" s="65" customFormat="1" spans="1:26">
+    <row r="13" spans="1:26" s="65" customFormat="1">
       <c r="A13" s="65">
         <v>11</v>
       </c>
@@ -3013,7 +2409,7 @@
       <c r="Y13" s="74"/>
       <c r="Z13" s="74"/>
     </row>
-    <row r="14" s="94" customFormat="1" spans="1:26">
+    <row r="14" spans="1:26" s="94" customFormat="1">
       <c r="A14" s="94">
         <v>13</v>
       </c>
@@ -3075,7 +2471,7 @@
       <c r="Y14" s="115"/>
       <c r="Z14" s="115"/>
     </row>
-    <row r="15" s="95" customFormat="1" ht="48" customHeight="1" spans="1:26">
+    <row r="15" spans="1:26" s="95" customFormat="1" ht="48" customHeight="1">
       <c r="A15" s="117">
         <v>14</v>
       </c>
@@ -3137,7 +2533,7 @@
       <c r="Y15" s="119"/>
       <c r="Z15" s="119"/>
     </row>
-    <row r="16" s="94" customFormat="1" spans="1:26">
+    <row r="16" spans="1:26" s="94" customFormat="1">
       <c r="A16" s="94">
         <v>15</v>
       </c>
@@ -3195,7 +2591,7 @@
       <c r="Y16" s="115"/>
       <c r="Z16" s="115"/>
     </row>
-    <row r="17" s="96" customFormat="1" spans="1:26">
+    <row r="17" spans="1:26" s="96" customFormat="1">
       <c r="A17" s="96">
         <v>16</v>
       </c>
@@ -3252,7 +2648,7 @@
       <c r="Y17" s="122"/>
       <c r="Z17" s="122"/>
     </row>
-    <row r="18" s="97" customFormat="1" spans="1:26">
+    <row r="18" spans="1:26" s="97" customFormat="1">
       <c r="A18" s="92">
         <v>17</v>
       </c>
@@ -3305,52 +2701,50 @@
     <mergeCell ref="R1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K3" sqref="J3:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4571428571429" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.18095238095238" style="45" customWidth="1"/>
-    <col min="2" max="2" width="22.9619047619048" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.5428571428571" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.1809523809524" style="45" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="23" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="45" customWidth="1"/>
     <col min="5" max="5" width="10" style="45" customWidth="1"/>
-    <col min="6" max="6" width="6.81904761904762" style="45" customWidth="1"/>
-    <col min="7" max="7" width="24.4571428571429" style="45" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="45" customWidth="1"/>
     <col min="8" max="8" width="14" style="45" customWidth="1"/>
-    <col min="9" max="9" width="39.4571428571429" style="45" customWidth="1"/>
-    <col min="10" max="10" width="15.4571428571429" style="45" customWidth="1"/>
-    <col min="11" max="11" width="20.5428571428571" style="45" customWidth="1"/>
-    <col min="12" max="12" width="22.8190476190476" style="45" customWidth="1"/>
-    <col min="13" max="13" width="11.8190476190476" style="45" customWidth="1"/>
-    <col min="14" max="14" width="10.8190476190476" style="45" customWidth="1"/>
-    <col min="15" max="15" width="10.4571428571429" style="45" customWidth="1"/>
-    <col min="16" max="16" width="10.8190476190476" style="45" customWidth="1"/>
-    <col min="17" max="17" width="10.4571428571429" style="45" customWidth="1"/>
-    <col min="18" max="18" width="10.8190476190476" style="45" customWidth="1"/>
-    <col min="19" max="19" width="10.4571428571429" style="45" customWidth="1"/>
-    <col min="20" max="21" width="19.1809523809524" style="45" customWidth="1"/>
-    <col min="22" max="22" width="60.4571428571429" style="46" customWidth="1"/>
-    <col min="23" max="16384" width="11.4571428571429" style="45"/>
+    <col min="9" max="9" width="39.453125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="45" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" style="45" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="45" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="45" customWidth="1"/>
+    <col min="20" max="21" width="19.1796875" style="45" customWidth="1"/>
+    <col min="22" max="22" width="60.453125" style="46" customWidth="1"/>
+    <col min="23" max="16384" width="11.453125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="22:22">
+    <row r="1" spans="1:30">
       <c r="V1" s="67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="43" customFormat="1" spans="1:22">
+    <row r="2" spans="1:30" s="43" customFormat="1">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
@@ -3418,7 +2812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="63" customFormat="1" spans="1:22">
+    <row r="3" spans="1:30" s="63" customFormat="1">
       <c r="A3" s="63">
         <v>1</v>
       </c>
@@ -3468,7 +2862,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" s="44" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="44" customFormat="1">
       <c r="A4" s="44">
         <v>2</v>
       </c>
@@ -3515,7 +2909,7 @@
       <c r="AC4" s="43"/>
       <c r="AD4" s="43"/>
     </row>
-    <row r="5" s="64" customFormat="1" spans="1:22">
+    <row r="5" spans="1:30" s="64" customFormat="1">
       <c r="A5" s="65">
         <v>3</v>
       </c>
@@ -3554,7 +2948,7 @@
       </c>
       <c r="V5" s="88"/>
     </row>
-    <row r="6" s="65" customFormat="1" spans="2:22">
+    <row r="6" spans="1:30" s="65" customFormat="1">
       <c r="B6" s="75" t="s">
         <v>153</v>
       </c>
@@ -3587,7 +2981,7 @@
       </c>
       <c r="V6" s="89"/>
     </row>
-    <row r="7" s="66" customFormat="1" spans="2:22">
+    <row r="7" spans="1:30" s="66" customFormat="1">
       <c r="B7" s="77" t="s">
         <v>87</v>
       </c>
@@ -3622,49 +3016,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="http://pprsar.com/cosme/commj_v2.php"/>
-    <hyperlink ref="I4" r:id="rId1" display="http://pprsar.com/cosme/commj_v2.php"/>
-    <hyperlink ref="I5" r:id="rId1" display="http://pprsar.com/cosme/commj_v2.php"/>
-    <hyperlink ref="I6" r:id="rId2" display="http://dtaamerica.com/ws/commj_v2.php"/>
-    <hyperlink ref="I7" r:id="rId2" display="http://dtaamerica.com/ws/commj_v2.php"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4571428571429" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.18095238095238" style="45" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="45" customWidth="1"/>
     <col min="2" max="2" width="20" style="45" customWidth="1"/>
-    <col min="3" max="3" width="12.8190476190476" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.1809523809524" style="45" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="45" customWidth="1"/>
     <col min="5" max="5" width="10" style="45" customWidth="1"/>
-    <col min="6" max="6" width="22.8190476190476" style="45" customWidth="1"/>
-    <col min="7" max="7" width="16.1809523809524" style="45" customWidth="1"/>
-    <col min="8" max="8" width="36.5428571428571" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.4571428571429" style="45" customWidth="1"/>
-    <col min="10" max="10" width="17.4571428571429" style="45" customWidth="1"/>
-    <col min="11" max="11" width="22.8190476190476" style="45" customWidth="1"/>
-    <col min="12" max="13" width="10.4571428571429" style="45" customWidth="1"/>
-    <col min="14" max="14" width="60.4571428571429" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="11.4571428571429" style="45"/>
+    <col min="6" max="6" width="22.81640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="36.54296875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="45" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="60.453125" style="46" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="14:14">
+    <row r="1" spans="1:22">
       <c r="N1" s="45"/>
     </row>
-    <row r="2" s="43" customFormat="1" spans="1:14">
+    <row r="2" spans="1:22" s="43" customFormat="1">
       <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
@@ -3708,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:22">
       <c r="A3" s="45">
         <v>1</v>
       </c>
@@ -3746,7 +3138,7 @@
       </c>
       <c r="N3" s="60"/>
     </row>
-    <row r="4" s="44" customFormat="1" spans="2:22">
+    <row r="4" spans="1:22" s="44" customFormat="1">
       <c r="B4" s="53" t="s">
         <v>105</v>
       </c>
@@ -3781,7 +3173,7 @@
       <c r="U4" s="43"/>
       <c r="V4" s="43"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:22">
       <c r="A5" s="44"/>
       <c r="B5" s="56"/>
       <c r="C5" s="57"/>
@@ -3796,33 +3188,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="http://dtaamerica.com/ws/sensor_v1.php"/>
-    <hyperlink ref="H4" r:id="rId1" display="http://dtaamerica.com/ws/sensor_v1.php"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.4571428571429" customWidth="1"/>
-    <col min="2" max="2" width="13.1809523809524" customWidth="1"/>
-    <col min="5" max="5" width="36.8190476190476" customWidth="1"/>
-    <col min="6" max="6" width="13.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="10.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="7.85714285714286" customWidth="1"/>
-    <col min="9" max="9" width="15.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="36.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3854,7 +3244,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
@@ -3883,7 +3273,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="18" customFormat="1">
       <c r="A3" s="25" t="s">
         <v>39</v>
       </c>
@@ -3912,7 +3302,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="1" spans="1:8">
+    <row r="4" spans="1:9" s="19" customFormat="1">
       <c r="A4" s="27" t="s">
         <v>87</v>
       </c>
@@ -3938,7 +3328,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" s="18" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="18" customFormat="1">
       <c r="A5" s="25" t="s">
         <v>94</v>
       </c>
@@ -3967,7 +3357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" s="20" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="20" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>110</v>
       </c>
@@ -3990,7 +3380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="1" spans="1:7">
+    <row r="7" spans="1:9" s="19" customFormat="1">
       <c r="A7" s="27" t="s">
         <v>161</v>
       </c>
@@ -4013,7 +3403,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="18" customFormat="1">
       <c r="A8" s="25" t="s">
         <v>50</v>
       </c>
@@ -4042,7 +3432,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="18" customFormat="1">
       <c r="A9" s="25" t="s">
         <v>30</v>
       </c>
@@ -4071,7 +3461,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="18" customFormat="1">
       <c r="A10" s="25" t="s">
         <v>56</v>
       </c>
@@ -4100,7 +3490,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" s="21" customFormat="1" spans="1:8">
+    <row r="11" spans="1:9" s="21" customFormat="1">
       <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
@@ -4117,16 +3507,16 @@
         <v>177</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>178</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" s="20" customFormat="1" spans="1:9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1">
       <c r="A12" s="30" t="s">
         <v>99</v>
       </c>
@@ -4149,7 +3539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="18" customFormat="1">
       <c r="A13" s="25" t="s">
         <v>45</v>
       </c>
@@ -4178,7 +3568,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" s="22" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="22" customFormat="1">
       <c r="A14" s="36" t="s">
         <v>61</v>
       </c>
@@ -4195,16 +3585,16 @@
         <v>177</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="18" customFormat="1">
       <c r="A15" s="25" t="s">
         <v>153</v>
       </c>
@@ -4230,7 +3620,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" spans="1:8">
+    <row r="16" spans="1:9" s="19" customFormat="1">
       <c r="A16" s="39" t="s">
         <v>71</v>
       </c>
@@ -4247,7 +3637,7 @@
         <v>177</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>178</v>
@@ -4256,7 +3646,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="20" customFormat="1">
       <c r="A17" s="30" t="s">
         <v>80</v>
       </c>
@@ -4275,7 +3665,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" s="18" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="18" customFormat="1">
       <c r="A18" s="18" t="s">
         <v>118</v>
       </c>
@@ -4295,7 +3685,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="22" customFormat="1">
       <c r="A19" s="22" t="s">
         <v>122</v>
       </c>
@@ -4306,7 +3696,7 @@
         <v>177</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>178</v>
@@ -4315,7 +3705,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1" spans="1:8">
+    <row r="20" spans="1:9" s="19" customFormat="1">
       <c r="A20" s="19" t="s">
         <v>140</v>
       </c>
@@ -4335,7 +3725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" s="18" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9" s="18" customFormat="1">
       <c r="A21" s="18" t="s">
         <v>147</v>
       </c>
@@ -4346,7 +3736,7 @@
         <v>177</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>178</v>
@@ -4360,31 +3750,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -4402,9 +3790,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
@@ -4422,9 +3810,9 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>35</v>
@@ -4442,9 +3830,9 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>35</v>
@@ -4462,9 +3850,9 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
@@ -4482,9 +3870,9 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>35</v>
@@ -4502,9 +3890,9 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -4522,9 +3910,9 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>66</v>
@@ -4542,9 +3930,9 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>76</v>
@@ -4560,9 +3948,9 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>83</v>
@@ -4580,9 +3968,9 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>83</v>
@@ -4600,9 +3988,9 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>83</v>
@@ -4620,9 +4008,9 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>83</v>
@@ -4640,9 +4028,9 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>83</v>
@@ -4660,9 +4048,9 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>114</v>
@@ -4680,9 +4068,9 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>114</v>
@@ -4700,15 +4088,15 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
@@ -4716,9 +4104,9 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>144</v>
@@ -4732,9 +4120,9 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>150</v>
@@ -4748,9 +4136,9 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>157</v>
@@ -4762,9 +4150,9 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>165</v>
@@ -4796,6 +4184,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297343ED-174F-47B1-AE28-55F29CAE2C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D9E56-D237-46F0-85B7-A4B24019715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="236">
   <si>
     <t>Observaciones</t>
   </si>
@@ -592,9 +592,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>Claudio</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -613,22 +610,165 @@
     <t>Nieves - Belisario</t>
   </si>
   <si>
-    <t>Francisco Teran</t>
-  </si>
-  <si>
-    <t>UNIFRUT</t>
+    <t>Manuel Rivera</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Heber Alonso</t>
+  </si>
+  <si>
+    <t>Carlos Macyshyn</t>
+  </si>
+  <si>
+    <t>Salvador Saenz Mendoza</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Luis Carlos</t>
+  </si>
+  <si>
+    <t>Silvia Yadira</t>
+  </si>
+  <si>
+    <t>Ramiro Teran</t>
+  </si>
+  <si>
+    <t>Laura C. - Manuel M.</t>
+  </si>
+  <si>
+    <t>Carlos Estrada</t>
+  </si>
+  <si>
+    <t>Ignacio Delgado</t>
+  </si>
+  <si>
+    <t>Alvaro Loya Andujo</t>
+  </si>
+  <si>
+    <t>Nieves - Cesped (94309)</t>
+  </si>
+  <si>
+    <t>Pack5</t>
+  </si>
+  <si>
+    <t>Pack10</t>
+  </si>
+  <si>
+    <t>Pack3</t>
+  </si>
+  <si>
+    <t>Pack5+1</t>
+  </si>
+  <si>
+    <t>Revisar sensores 1 y 5</t>
+  </si>
+  <si>
+    <t>Revisar sensor 5</t>
+  </si>
+  <si>
+    <t>Instalar</t>
+  </si>
+  <si>
+    <t>Llamar y ver qué pasa?</t>
+  </si>
+  <si>
+    <t>SHT4</t>
+  </si>
+  <si>
+    <t>Presión</t>
+  </si>
+  <si>
+    <t>Instalar y Sensores de presión</t>
+  </si>
+  <si>
+    <t>Pv66</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Necesidades</t>
+  </si>
+  <si>
+    <t>Revisar el gateway y sensores</t>
+  </si>
+  <si>
+    <t>Revisar sensores 2, 3 y 4</t>
+  </si>
+  <si>
+    <t>Hugo Morales (Meoqui)</t>
+  </si>
+  <si>
+    <t>SHT2</t>
+  </si>
+  <si>
+    <t>Claudio (Celso Pivote 1)</t>
+  </si>
+  <si>
+    <t>Edmundo (Granjas Las Maravillas)</t>
+  </si>
+  <si>
+    <t>Alfredo Quintana (Rancho El Sauz)</t>
+  </si>
+  <si>
+    <t>Alvaro Mingura (Pack5)</t>
+  </si>
+  <si>
+    <t>Claudio (PROFRUT - Rancho)</t>
+  </si>
+  <si>
+    <t>Claudio (PROFRUT - El estanque)</t>
+  </si>
+  <si>
+    <t>Sensor Roto</t>
+  </si>
+  <si>
+    <t>Sensores desintalados</t>
+  </si>
+  <si>
+    <t>Revisar encendido de la bomba</t>
+  </si>
+  <si>
+    <t>Francisco Teran / Guadalupe (FJTeran)</t>
+  </si>
+  <si>
+    <t>Javier Hernández (Pack 3)</t>
+  </si>
+  <si>
+    <t>Carlos Macyshyn (Pack 6)</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,6 +875,35 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -850,124 +1019,113 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -976,10 +1134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -991,7 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1003,10 +1161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1018,25 +1176,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1048,49 +1206,49 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1099,230 +1257,258 @@
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1611,1090 +1797,1090 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="98" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="98" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="98" customWidth="1"/>
-    <col min="5" max="5" width="10" style="98" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="98" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="98" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="98" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="98" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="98" customWidth="1"/>
-    <col min="11" max="11" width="37.81640625" style="98" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="98" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" style="98" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="98" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" style="98" customWidth="1"/>
-    <col min="16" max="17" width="19.1796875" style="98" customWidth="1"/>
-    <col min="18" max="18" width="60.453125" style="99" customWidth="1"/>
-    <col min="19" max="26" width="12.1796875" style="55" customWidth="1"/>
-    <col min="27" max="16384" width="11.453125" style="98"/>
+    <col min="1" max="1" width="5.1796875" style="93" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="93" customWidth="1"/>
+    <col min="5" max="5" width="10" style="93" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="93" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="93" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="93" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="93" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="93" customWidth="1"/>
+    <col min="11" max="11" width="37.81640625" style="93" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" style="93" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="93" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="93" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" style="93" customWidth="1"/>
+    <col min="16" max="17" width="19.1796875" style="93" customWidth="1"/>
+    <col min="18" max="18" width="60.453125" style="94" customWidth="1"/>
+    <col min="19" max="26" width="12.1796875" style="50" customWidth="1"/>
+    <col min="27" max="16384" width="11.453125" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="162" t="s">
+      <c r="R1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-    </row>
-    <row r="2" spans="1:26" s="43" customFormat="1">
-      <c r="A2" s="43" t="s">
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+    </row>
+    <row r="2" spans="1:26" s="38" customFormat="1">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="38">
         <v>1</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="38">
         <v>2</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="38">
         <v>3</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="38">
         <v>4</v>
       </c>
-      <c r="W2" s="43">
+      <c r="W2" s="38">
         <v>5</v>
       </c>
-      <c r="X2" s="43">
+      <c r="X2" s="38">
         <v>6</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="38">
         <v>7</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="65" customFormat="1">
-      <c r="A3" s="64">
+    <row r="3" spans="1:26" s="60" customFormat="1">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="96">
         <v>526251106286</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="102">
+      <c r="G3" s="97">
         <v>1211</v>
       </c>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102" t="s">
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="125" t="s">
+      <c r="O3" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="126">
+      <c r="P3" s="121">
         <v>43872</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-    </row>
-    <row r="4" spans="1:26" s="91" customFormat="1" ht="29">
-      <c r="A4" s="91">
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+    </row>
+    <row r="4" spans="1:26" s="86" customFormat="1" ht="29">
+      <c r="A4" s="86">
         <v>2</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="99">
         <v>526251271378</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="105">
+      <c r="G4" s="100">
         <v>1211</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105" t="s">
+      <c r="H4" s="100"/>
+      <c r="I4" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="127" t="s">
+      <c r="K4" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="91" t="s">
+      <c r="L4" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="128" t="s">
+      <c r="O4" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="129">
+      <c r="P4" s="124">
         <v>44603</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="152" t="s">
+      <c r="R4" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="105"/>
-      <c r="W4" s="105"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-    </row>
-    <row r="5" spans="1:26" s="65" customFormat="1" ht="29">
-      <c r="A5" s="65">
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+    </row>
+    <row r="5" spans="1:26" s="60" customFormat="1" ht="29">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="101">
         <v>526251024489</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="69">
         <v>1211</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="130" t="s">
+      <c r="K5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="131" t="s">
+      <c r="O5" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="132">
+      <c r="P5" s="127">
         <v>44603</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="153" t="s">
+      <c r="R5" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-    </row>
-    <row r="6" spans="1:26" s="65" customFormat="1">
-      <c r="A6" s="65">
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+    </row>
+    <row r="6" spans="1:26" s="60" customFormat="1">
+      <c r="A6" s="60">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="101">
         <v>526251452797</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="69">
         <v>1211</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="130" t="s">
+      <c r="K6" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="131" t="s">
+      <c r="O6" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="132">
+      <c r="P6" s="127">
         <v>44603</v>
       </c>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="153" t="s">
+      <c r="R6" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="74"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-    </row>
-    <row r="7" spans="1:26" s="65" customFormat="1">
-      <c r="A7" s="65">
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+    </row>
+    <row r="7" spans="1:26" s="60" customFormat="1">
+      <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="101">
         <v>526255917395</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="69">
         <v>1211</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="130" t="s">
+      <c r="K7" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="131" t="s">
+      <c r="O7" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="132">
+      <c r="P7" s="127">
         <v>44603</v>
       </c>
-      <c r="Q7" s="65" t="s">
+      <c r="Q7" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="153" t="s">
+      <c r="R7" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-    </row>
-    <row r="8" spans="1:26" s="65" customFormat="1">
-      <c r="A8" s="65" t="s">
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+    </row>
+    <row r="8" spans="1:26" s="60" customFormat="1">
+      <c r="A8" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="106">
+      <c r="C8" s="101">
         <v>526251193016</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="69">
         <v>1211</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74" t="s">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="74" t="s">
+      <c r="J8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="130" t="s">
+      <c r="K8" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="131" t="s">
+      <c r="O8" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="132">
+      <c r="P8" s="127">
         <v>44603</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="153" t="s">
+      <c r="R8" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-    </row>
-    <row r="9" spans="1:26" s="92" customFormat="1">
-      <c r="A9" s="92">
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+    </row>
+    <row r="9" spans="1:26" s="87" customFormat="1">
+      <c r="A9" s="87">
         <v>7</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="103">
         <v>526251342314</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="104">
         <v>1211</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="109" t="s">
+      <c r="J9" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="92" t="s">
+      <c r="N9" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="134" t="s">
+      <c r="O9" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="135">
+      <c r="P9" s="130">
         <v>44603</v>
       </c>
-      <c r="Q9" s="92" t="s">
+      <c r="Q9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="154" t="s">
+      <c r="R9" s="149" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="93" customFormat="1">
-      <c r="A10" s="93">
+    <row r="10" spans="1:26" s="88" customFormat="1">
+      <c r="A10" s="88">
         <v>8</v>
       </c>
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="106">
         <v>526251201079</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="107">
         <v>1211</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="136" t="s">
+      <c r="K10" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="93" t="s">
+      <c r="L10" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="93" t="s">
+      <c r="M10" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="137" t="s">
+      <c r="O10" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="138">
+      <c r="P10" s="133">
         <v>44384</v>
       </c>
-      <c r="Q10" s="93" t="s">
+      <c r="Q10" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="155" t="s">
+      <c r="R10" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-    </row>
-    <row r="11" spans="1:26" s="94" customFormat="1">
-      <c r="A11" s="94">
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+    </row>
+    <row r="11" spans="1:26" s="89" customFormat="1">
+      <c r="A11" s="89">
         <v>9</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C11" s="109">
         <v>526251020232</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="110">
         <v>1312</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="139" t="s">
+      <c r="J11" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="140" t="s">
+      <c r="K11" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="140" t="s">
+      <c r="L11" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="140" t="s">
+      <c r="M11" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="140" t="s">
+      <c r="N11" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="141" t="s">
+      <c r="O11" s="136" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="141">
+      <c r="P11" s="136">
         <v>44646</v>
       </c>
-      <c r="R11" s="156"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="115"/>
-    </row>
-    <row r="12" spans="1:26" s="92" customFormat="1">
-      <c r="A12" s="92">
+      <c r="R11" s="151"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+    </row>
+    <row r="12" spans="1:26" s="87" customFormat="1">
+      <c r="A12" s="87">
         <v>10</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="103">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="104">
         <v>1211</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="H12" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="133" t="s">
+      <c r="M12" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="133" t="s">
+      <c r="N12" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="142" t="s">
+      <c r="O12" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="134">
+      <c r="P12" s="129">
         <v>44646</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="157" t="s">
+      <c r="Q12" s="128"/>
+      <c r="R12" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="S12" s="109" t="s">
+      <c r="S12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="T12" s="109" t="s">
+      <c r="T12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="109" t="s">
+      <c r="U12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="109" t="s">
+      <c r="V12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="109" t="s">
+      <c r="W12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="X12" s="109" t="s">
+      <c r="X12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="Y12" s="109" t="s">
+      <c r="Y12" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="109" t="s">
+      <c r="Z12" s="104" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="65" customFormat="1">
-      <c r="A13" s="65">
+    <row r="13" spans="1:26" s="60" customFormat="1">
+      <c r="A13" s="60">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="101">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="74">
+      <c r="G13" s="69">
         <v>1211</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="130" t="s">
+      <c r="K13" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="130" t="s">
+      <c r="L13" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="130" t="s">
+      <c r="M13" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="130" t="s">
+      <c r="N13" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="131">
+      <c r="P13" s="126">
         <v>44646</v>
       </c>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="153"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
-    </row>
-    <row r="14" spans="1:26" s="94" customFormat="1">
-      <c r="A14" s="94">
+      <c r="Q13" s="125"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+    </row>
+    <row r="14" spans="1:26" s="89" customFormat="1">
+      <c r="A14" s="89">
         <v>13</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="111">
         <v>526251037317</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="110">
         <v>1312</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="115" t="s">
+      <c r="I14" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="140" t="s">
+      <c r="K14" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="140" t="s">
+      <c r="L14" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="140" t="s">
+      <c r="M14" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="140" t="s">
+      <c r="N14" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="143" t="s">
+      <c r="O14" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="141">
+      <c r="P14" s="136">
         <v>44646</v>
       </c>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="158" t="s">
+      <c r="Q14" s="135"/>
+      <c r="R14" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-    </row>
-    <row r="15" spans="1:26" s="95" customFormat="1" ht="48" customHeight="1">
-      <c r="A15" s="117">
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+    </row>
+    <row r="15" spans="1:26" s="90" customFormat="1" ht="48" customHeight="1">
+      <c r="A15" s="112">
         <v>14</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="113">
         <v>526251060168</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="119">
+      <c r="G15" s="114">
         <v>1211</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="144" t="s">
+      <c r="J15" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="145" t="s">
+      <c r="K15" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="145" t="s">
+      <c r="L15" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="95" t="s">
+      <c r="M15" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="95" t="s">
+      <c r="N15" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="146" t="s">
+      <c r="O15" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="147">
+      <c r="P15" s="142">
         <v>44762</v>
       </c>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="159" t="s">
+      <c r="Q15" s="140"/>
+      <c r="R15" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="119"/>
-      <c r="T15" s="119"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="119"/>
-      <c r="W15" s="119"/>
-      <c r="X15" s="119"/>
-      <c r="Y15" s="119"/>
-      <c r="Z15" s="119"/>
-    </row>
-    <row r="16" spans="1:26" s="94" customFormat="1">
-      <c r="A16" s="94">
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="114"/>
+      <c r="Z15" s="114"/>
+    </row>
+    <row r="16" spans="1:26" s="89" customFormat="1">
+      <c r="A16" s="89">
         <v>15</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="111">
         <v>526251059200</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="115" t="s">
+      <c r="F16" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="115">
+      <c r="G16" s="110">
         <v>1211</v>
       </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="140" t="s">
+      <c r="K16" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="140" t="s">
+      <c r="L16" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="140" t="s">
+      <c r="M16" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="140" t="s">
+      <c r="N16" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="143" t="s">
+      <c r="O16" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="141">
+      <c r="P16" s="136">
         <v>44647</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="115"/>
-    </row>
-    <row r="17" spans="1:26" s="96" customFormat="1">
-      <c r="A17" s="96">
+      <c r="Q16" s="135"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+    </row>
+    <row r="17" spans="1:26" s="91" customFormat="1">
+      <c r="A17" s="91">
         <v>16</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="121">
+      <c r="C17" s="116">
         <v>526251020790</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="122" t="s">
+      <c r="E17" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="117">
         <v>1211</v>
       </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122" t="s">
+      <c r="H17" s="117"/>
+      <c r="I17" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="122" t="s">
+      <c r="J17" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="148" t="s">
+      <c r="K17" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="148" t="s">
+      <c r="L17" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="148" t="s">
+      <c r="M17" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="148" t="s">
+      <c r="N17" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="149" t="s">
+      <c r="O17" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="150">
+      <c r="P17" s="145">
         <v>44647</v>
       </c>
-      <c r="R17" s="160"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="122"/>
-    </row>
-    <row r="18" spans="1:26" s="97" customFormat="1">
-      <c r="A18" s="92">
+      <c r="R17" s="155"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="117"/>
+    </row>
+    <row r="18" spans="1:26" s="92" customFormat="1">
+      <c r="A18" s="87">
         <v>17</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="123">
+      <c r="C18" s="118">
         <v>526251020642</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="104">
         <v>1211</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109" t="s">
+      <c r="H18" s="104"/>
+      <c r="I18" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="151" t="s">
+      <c r="J18" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="133" t="s">
+      <c r="K18" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2715,304 +2901,304 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="23" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10" style="45" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="14" style="45" customWidth="1"/>
-    <col min="9" max="9" width="39.453125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="45" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="45" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="45" customWidth="1"/>
-    <col min="20" max="21" width="19.1796875" style="45" customWidth="1"/>
-    <col min="22" max="22" width="60.453125" style="46" customWidth="1"/>
-    <col min="23" max="16384" width="11.453125" style="45"/>
+    <col min="1" max="1" width="5.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="23" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10" style="40" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14" style="40" customWidth="1"/>
+    <col min="9" max="9" width="39.453125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="22.81640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="40" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" style="40" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="40" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="40" customWidth="1"/>
+    <col min="20" max="21" width="19.1796875" style="40" customWidth="1"/>
+    <col min="22" max="22" width="60.453125" style="41" customWidth="1"/>
+    <col min="23" max="16384" width="11.453125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="V1" s="67" t="s">
+      <c r="V1" s="62" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:30" s="38" customFormat="1">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="67" t="s">
+      <c r="V2" s="62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="63" customFormat="1">
-      <c r="A3" s="63">
+    <row r="3" spans="1:30" s="58" customFormat="1">
+      <c r="A3" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="86">
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="81">
         <v>44603</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="87" t="s">
+      <c r="V3" s="82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="44" customFormat="1">
-      <c r="A4" s="44">
+    <row r="4" spans="1:30" s="39" customFormat="1">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="52">
         <v>526251020596</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-    </row>
-    <row r="5" spans="1:30" s="64" customFormat="1">
-      <c r="A5" s="65">
+      <c r="V4" s="57"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+    </row>
+    <row r="5" spans="1:30" s="59" customFormat="1">
+      <c r="A5" s="60">
         <v>3</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="68">
         <v>526251020266</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="V5" s="88"/>
-    </row>
-    <row r="6" spans="1:30" s="65" customFormat="1">
-      <c r="B6" s="75" t="s">
+      <c r="V5" s="83"/>
+    </row>
+    <row r="6" spans="1:30" s="60" customFormat="1">
+      <c r="B6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="71">
         <v>526251579804</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="84" t="s">
+      <c r="I6" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:30" s="66" customFormat="1">
-      <c r="B7" s="77" t="s">
+      <c r="V6" s="84"/>
+    </row>
+    <row r="7" spans="1:30" s="61" customFormat="1">
+      <c r="B7" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="73">
         <v>526251531996</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="V7" s="90"/>
+      <c r="V7" s="85"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3037,154 +3223,154 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="20" style="45" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="10" style="45" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="36.54296875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="45" customWidth="1"/>
-    <col min="12" max="13" width="10.453125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="60.453125" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="11.453125" style="45"/>
+    <col min="1" max="1" width="5.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20" style="40" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10" style="40" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="36.54296875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" style="40" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="60.453125" style="41" customWidth="1"/>
+    <col min="15" max="16384" width="11.453125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="N1" s="45"/>
-    </row>
-    <row r="2" spans="1:22" s="43" customFormat="1">
-      <c r="A2" s="47" t="s">
+      <c r="N1" s="40"/>
+    </row>
+    <row r="2" spans="1:22" s="38" customFormat="1">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="43" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="45">
+      <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="45">
         <v>526251259145</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="54">
         <v>45388</v>
       </c>
-      <c r="M3" s="59">
+      <c r="M3" s="54">
         <v>45753</v>
       </c>
-      <c r="N3" s="60"/>
-    </row>
-    <row r="4" spans="1:22" s="44" customFormat="1">
-      <c r="B4" s="53" t="s">
+      <c r="N3" s="55"/>
+    </row>
+    <row r="4" spans="1:22" s="39" customFormat="1">
+      <c r="B4" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="49">
         <v>526251060168</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="55" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
+      <c r="K4" s="56"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="44"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="61"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3198,558 +3384,1067 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="33.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="8" width="7.81640625" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="22" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="18" customFormat="1">
-      <c r="A2" s="18" t="s">
+      <c r="J1" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="27">
+        <v>526251531996</v>
+      </c>
+      <c r="C2" s="28">
+        <v>32845130</v>
+      </c>
+      <c r="D2" s="28">
         <v>18</v>
       </c>
-      <c r="B2" s="24">
+      <c r="E2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="162">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="27">
+        <v>526251259145</v>
+      </c>
+      <c r="C3" s="28">
+        <v>32845134</v>
+      </c>
+      <c r="D3" s="28">
+        <v>18</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="159" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="162">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="36">
+        <v>526251201079</v>
+      </c>
+      <c r="C4" s="37">
+        <v>32848099</v>
+      </c>
+      <c r="D4" s="37">
+        <v>32</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="160" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="162">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="27">
+        <v>526251020596</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="H6" s="164"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>20333844254</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>24430362948</v>
+      </c>
+      <c r="E8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="164"/>
+      <c r="I8" s="161" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>24530080316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>24530080324</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="166">
+        <v>45970</v>
+      </c>
+      <c r="I10" s="157" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>24530080332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="164"/>
+      <c r="I11" s="170" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>24530080407</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="164"/>
+      <c r="I12" s="161" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>24530080415</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="157" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="164"/>
+      <c r="I13" s="157" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>24530080423</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="157" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="164"/>
+      <c r="I14" s="157" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>24530080431</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="157" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="164"/>
+      <c r="I15" s="157" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>24530080449</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="164"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>24530080456</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="157" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>24530094119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="164"/>
+      <c r="I18" s="157" t="s">
+        <v>215</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>24530094127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="168">
+        <v>24530094134</v>
+      </c>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>24530094135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="157" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22">
+        <v>24530094143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>24530094150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>24530094267</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="166">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>24530094275</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="157" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>24530094283</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I26" s="157" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>24530094291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I27" s="157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28">
+        <v>24530094309</v>
+      </c>
+      <c r="E28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="165" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>24330165126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="I31" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" s="158">
+        <f>SUM(J2:J30)</f>
+        <v>22</v>
+      </c>
+      <c r="K31" s="158">
+        <f t="shared" ref="K31:M31" si="0">SUM(K2:K30)</f>
+        <v>2</v>
+      </c>
+      <c r="L31" s="158">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="158">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="158">
+        <f>SUM(N2:N30)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="I32" s="157"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="157"/>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="157"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="157"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="157"/>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" s="157"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="157"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="157"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="157"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="157"/>
+    </row>
+    <row r="47" spans="9:9">
+      <c r="I47" s="157"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="157"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="I49" s="157"/>
+    </row>
+    <row r="51" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A51" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="23">
         <v>526251106286</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C51" s="18">
         <v>32845128</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D51" s="18">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E51" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G51" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H51" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I51" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1">
-      <c r="A3" s="25" t="s">
+    <row r="52" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A52" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B52" s="23">
         <v>526251024489</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C52" s="25">
         <v>32845129</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D52" s="25">
         <v>18</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E52" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F52" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G52" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H52" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I52" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="19" customFormat="1">
-      <c r="A4" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="28">
-        <v>526251531996</v>
-      </c>
-      <c r="C4" s="29">
-        <v>32845130</v>
-      </c>
-      <c r="D4" s="29">
+    <row r="53" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A53" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="23">
+        <v>526258372598</v>
+      </c>
+      <c r="C53" s="25">
+        <v>32845131</v>
+      </c>
+      <c r="D53" s="25">
         <v>18</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E53" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F53" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H53" s="18" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1">
-      <c r="A5" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="24">
-        <v>526258372598</v>
-      </c>
-      <c r="C5" s="26">
-        <v>32845131</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="I53" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A54" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="23">
+        <v>526255917395</v>
+      </c>
+      <c r="C54" s="25">
+        <v>32845135</v>
+      </c>
+      <c r="D54" s="25">
         <v>18</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E54" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F54" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H54" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I54" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="20" customFormat="1">
-      <c r="A6" s="30" t="s">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A55" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="23">
+        <v>526251271378</v>
+      </c>
+      <c r="C55" s="25">
+        <v>32848029</v>
+      </c>
+      <c r="D55" s="25">
+        <v>18</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="23">
+        <v>526251193016</v>
+      </c>
+      <c r="C56" s="25">
+        <v>32848031</v>
+      </c>
+      <c r="D56" s="25">
+        <v>18</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A57" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="23">
+        <v>526251452797</v>
+      </c>
+      <c r="C57" s="25">
+        <v>32848096</v>
+      </c>
+      <c r="D57" s="25">
+        <v>32</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A58" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="23">
+        <v>526251579804</v>
+      </c>
+      <c r="C58" s="25">
+        <v>32848098</v>
+      </c>
+      <c r="D58" s="25">
+        <v>32</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A59" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="23">
+        <v>526251020790</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="A60" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="23">
+        <v>526251020266</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1">
+      <c r="A62" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B62" s="30">
         <v>526251059200</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C62" s="31">
         <v>32845132</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D62" s="31">
         <v>18</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E62" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F62" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I62" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="19" customFormat="1">
-      <c r="A7" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="28">
-        <v>526251259145</v>
-      </c>
-      <c r="C7" s="29">
-        <v>32845134</v>
-      </c>
-      <c r="D7" s="29">
-        <v>18</v>
-      </c>
-      <c r="E7" s="29" t="s">
+    <row r="63" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1">
+      <c r="A63" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="30">
+        <v>526251037317</v>
+      </c>
+      <c r="C63" s="31">
+        <v>32848094</v>
+      </c>
+      <c r="D63" s="31">
+        <v>32</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F63" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1">
+      <c r="A64" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="30">
+        <v>526251020232</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="21" customFormat="1" ht="14" customHeight="1">
+      <c r="A65" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="33">
+        <v>526251342314</v>
+      </c>
+      <c r="C65" s="34">
+        <v>32848097</v>
+      </c>
+      <c r="D65" s="34">
+        <v>32</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="21" customFormat="1" ht="14" customHeight="1">
+      <c r="A66" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="33">
+        <v>526251020642</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="18" customFormat="1">
-      <c r="A8" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="24">
-        <v>526255917395</v>
-      </c>
-      <c r="C8" s="26">
-        <v>32845135</v>
-      </c>
-      <c r="D8" s="26">
-        <v>18</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="I66" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1">
-      <c r="A9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="24">
-        <v>526251271378</v>
-      </c>
-      <c r="C9" s="26">
-        <v>32848029</v>
-      </c>
-      <c r="D9" s="26">
-        <v>18</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="18" customFormat="1">
-      <c r="A10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="24">
-        <v>526251193016</v>
-      </c>
-      <c r="C10" s="26">
-        <v>32848031</v>
-      </c>
-      <c r="D10" s="26">
-        <v>18</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1">
-      <c r="A11" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="34">
-        <v>526251060168</v>
-      </c>
-      <c r="C11" s="35">
-        <v>32848045</v>
-      </c>
-      <c r="D11" s="35">
-        <v>18</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="20" customFormat="1">
-      <c r="A12" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="31">
-        <v>526251037317</v>
-      </c>
-      <c r="C12" s="32">
-        <v>32848094</v>
-      </c>
-      <c r="D12" s="32">
-        <v>32</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="18" customFormat="1">
-      <c r="A13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="24">
-        <v>526251452797</v>
-      </c>
-      <c r="C13" s="26">
-        <v>32848096</v>
-      </c>
-      <c r="D13" s="26">
-        <v>32</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="22" customFormat="1">
-      <c r="A14" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="37">
-        <v>526251342314</v>
-      </c>
-      <c r="C14" s="38">
-        <v>32848097</v>
-      </c>
-      <c r="D14" s="38">
-        <v>32</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="18" customFormat="1">
-      <c r="A15" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" s="24">
-        <v>526251579804</v>
-      </c>
-      <c r="C15" s="26">
-        <v>32848098</v>
-      </c>
-      <c r="D15" s="26">
-        <v>32</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="19" customFormat="1">
-      <c r="A16" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="40">
-        <v>526251201079</v>
-      </c>
-      <c r="C16" s="41">
-        <v>32848099</v>
-      </c>
-      <c r="D16" s="41">
-        <v>32</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="20" customFormat="1">
-      <c r="A17" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="31">
-        <v>526251020232</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="18" customFormat="1">
-      <c r="A18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="24">
-        <v>526251020790</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="22" customFormat="1">
-      <c r="A19" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="37">
-        <v>526251020642</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="19" customFormat="1">
-      <c r="A20" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="28">
-        <v>526251020596</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="18" customFormat="1">
-      <c r="A21" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="24">
-        <v>526251020266</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3772,7 +4467,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>12</v>
@@ -3792,7 +4487,7 @@
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
@@ -3812,7 +4507,7 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>35</v>
@@ -3832,7 +4527,7 @@
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>35</v>
@@ -3852,7 +4547,7 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>35</v>
@@ -3872,7 +4567,7 @@
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>35</v>
@@ -3892,7 +4587,7 @@
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>35</v>
@@ -3912,7 +4607,7 @@
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>66</v>
@@ -3932,7 +4627,7 @@
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>76</v>
@@ -3950,7 +4645,7 @@
     </row>
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>83</v>
@@ -3970,7 +4665,7 @@
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>83</v>
@@ -3990,7 +4685,7 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>83</v>
@@ -4010,7 +4705,7 @@
     </row>
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>83</v>
@@ -4030,7 +4725,7 @@
     </row>
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>83</v>
@@ -4050,7 +4745,7 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>114</v>
@@ -4070,7 +4765,7 @@
     </row>
     <row r="16" spans="1:6" ht="15">
       <c r="A16" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>114</v>
@@ -4090,13 +4785,13 @@
     </row>
     <row r="17" spans="1:6" ht="15">
       <c r="A17" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="14" t="s">
@@ -4106,7 +4801,7 @@
     </row>
     <row r="18" spans="1:6" ht="15">
       <c r="A18" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>144</v>
@@ -4122,7 +4817,7 @@
     </row>
     <row r="19" spans="1:6" ht="15">
       <c r="A19" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>150</v>
@@ -4138,7 +4833,7 @@
     </row>
     <row r="20" spans="1:6" ht="15">
       <c r="A20" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>157</v>
@@ -4152,7 +4847,7 @@
     </row>
     <row r="21" spans="1:6" ht="15">
       <c r="A21" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>165</v>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTA-Agrícola\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D9E56-D237-46F0-85B7-A4B24019715D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC53E4-59D8-4EED-B785-631633911766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -30,12 +30,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="237">
   <si>
     <t>Observaciones</t>
   </si>
@@ -743,13 +746,29 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <r>
+      <t>89520200</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20333844270</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +925,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1113,9 +1140,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1499,9 +1523,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1509,6 +1530,12 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1795,1092 +1822,1092 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="93" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="93" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="93" customWidth="1"/>
-    <col min="5" max="5" width="10" style="93" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="93" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" style="93" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="93" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="93" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="93" customWidth="1"/>
-    <col min="11" max="11" width="37.81640625" style="93" customWidth="1"/>
-    <col min="12" max="12" width="15.453125" style="93" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" style="93" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="93" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" style="93" customWidth="1"/>
-    <col min="16" max="17" width="19.1796875" style="93" customWidth="1"/>
-    <col min="18" max="18" width="60.453125" style="94" customWidth="1"/>
-    <col min="19" max="26" width="12.1796875" style="50" customWidth="1"/>
-    <col min="27" max="16384" width="11.453125" style="93"/>
+    <col min="1" max="1" width="5.140625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="92" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="92" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="10" style="92" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="92" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="92" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="92" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="92" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="92" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" style="92" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="92" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="92" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="92" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="92" customWidth="1"/>
+    <col min="16" max="17" width="19.140625" style="92" customWidth="1"/>
+    <col min="18" max="18" width="60.42578125" style="93" customWidth="1"/>
+    <col min="19" max="26" width="12.140625" style="49" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="92"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="167" t="s">
+      <c r="R1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-    </row>
-    <row r="2" spans="1:26" s="38" customFormat="1">
-      <c r="A2" s="38" t="s">
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+    </row>
+    <row r="2" spans="1:26" s="37" customFormat="1">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="38">
+      <c r="S2" s="37">
         <v>1</v>
       </c>
-      <c r="T2" s="38">
+      <c r="T2" s="37">
         <v>2</v>
       </c>
-      <c r="U2" s="38">
+      <c r="U2" s="37">
         <v>3</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="37">
         <v>4</v>
       </c>
-      <c r="W2" s="38">
+      <c r="W2" s="37">
         <v>5</v>
       </c>
-      <c r="X2" s="38">
+      <c r="X2" s="37">
         <v>6</v>
       </c>
-      <c r="Y2" s="38">
+      <c r="Y2" s="37">
         <v>7</v>
       </c>
-      <c r="Z2" s="38">
+      <c r="Z2" s="37">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="60" customFormat="1">
-      <c r="A3" s="59">
+    <row r="3" spans="1:26" s="59" customFormat="1">
+      <c r="A3" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="96">
+      <c r="C3" s="95">
         <v>526251106286</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="97">
+      <c r="G3" s="96">
         <v>1211</v>
       </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="59" t="s">
+      <c r="N3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="120" t="s">
+      <c r="O3" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="121">
+      <c r="P3" s="120">
         <v>43872</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="84" t="s">
+      <c r="R3" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-    </row>
-    <row r="4" spans="1:26" s="86" customFormat="1" ht="29">
-      <c r="A4" s="86">
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+    </row>
+    <row r="4" spans="1:26" s="85" customFormat="1" ht="30">
+      <c r="A4" s="85">
         <v>2</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="98">
         <v>526251271378</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="99">
         <v>1211</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="99"/>
+      <c r="I4" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="100" t="s">
+      <c r="J4" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="124">
+      <c r="P4" s="123">
         <v>44603</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-    </row>
-    <row r="5" spans="1:26" s="60" customFormat="1" ht="29">
-      <c r="A5" s="60">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+    </row>
+    <row r="5" spans="1:26" s="59" customFormat="1" ht="30">
+      <c r="A5" s="59">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="100">
         <v>526251024489</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="68">
         <v>1211</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="K5" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="126" t="s">
+      <c r="O5" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="127">
+      <c r="P5" s="126">
         <v>44603</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="Q5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="148" t="s">
+      <c r="R5" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-    </row>
-    <row r="6" spans="1:26" s="60" customFormat="1">
-      <c r="A6" s="60">
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+    </row>
+    <row r="6" spans="1:26" s="59" customFormat="1">
+      <c r="A6" s="59">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="101">
+      <c r="C6" s="100">
         <v>526251452797</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="68">
         <v>1211</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69" t="s">
+      <c r="H6" s="68"/>
+      <c r="I6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="69" t="s">
+      <c r="J6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="K6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="N6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="126" t="s">
+      <c r="O6" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="127">
+      <c r="P6" s="126">
         <v>44603</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="Q6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="148" t="s">
+      <c r="R6" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-    </row>
-    <row r="7" spans="1:26" s="60" customFormat="1">
-      <c r="A7" s="60">
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+    </row>
+    <row r="7" spans="1:26" s="59" customFormat="1">
+      <c r="A7" s="59">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="100">
         <v>526255917395</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <v>1211</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="60" t="s">
+      <c r="N7" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="126" t="s">
+      <c r="O7" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="127">
+      <c r="P7" s="126">
         <v>44603</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Q7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="148" t="s">
+      <c r="R7" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-    </row>
-    <row r="8" spans="1:26" s="60" customFormat="1">
-      <c r="A8" s="60" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+    </row>
+    <row r="8" spans="1:26" s="59" customFormat="1">
+      <c r="A8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="100">
         <v>526251193016</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="68">
         <v>1211</v>
       </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="125" t="s">
+      <c r="K8" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="126" t="s">
+      <c r="O8" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="127">
+      <c r="P8" s="126">
         <v>44603</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="148" t="s">
+      <c r="R8" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-    </row>
-    <row r="9" spans="1:26" s="87" customFormat="1">
-      <c r="A9" s="87">
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+    </row>
+    <row r="9" spans="1:26" s="86" customFormat="1">
+      <c r="A9" s="86">
         <v>7</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="102">
         <v>526251342314</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="104">
+      <c r="G9" s="103">
         <v>1211</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="128" t="s">
+      <c r="K9" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="129" t="s">
+      <c r="O9" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="130">
+      <c r="P9" s="129">
         <v>44603</v>
       </c>
-      <c r="Q9" s="87" t="s">
+      <c r="Q9" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="149" t="s">
+      <c r="R9" s="148" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="88" customFormat="1">
-      <c r="A10" s="88">
+    <row r="10" spans="1:26" s="87" customFormat="1">
+      <c r="A10" s="87">
         <v>8</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="106">
+      <c r="C10" s="105">
         <v>526251201079</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="106">
         <v>1211</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="131" t="s">
+      <c r="K10" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="L10" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M10" s="88" t="s">
+      <c r="M10" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="132" t="s">
+      <c r="O10" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="133">
+      <c r="P10" s="132">
         <v>44384</v>
       </c>
-      <c r="Q10" s="88" t="s">
+      <c r="Q10" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="150" t="s">
+      <c r="R10" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-    </row>
-    <row r="11" spans="1:26" s="89" customFormat="1">
-      <c r="A11" s="89">
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+    </row>
+    <row r="11" spans="1:26" s="88" customFormat="1">
+      <c r="A11" s="88">
         <v>9</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="108">
         <v>526251020232</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="109">
         <v>1312</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="134" t="s">
+      <c r="J11" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="135" t="s">
+      <c r="L11" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="135" t="s">
+      <c r="M11" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="135" t="s">
+      <c r="N11" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="136" t="s">
+      <c r="O11" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="136">
+      <c r="P11" s="135">
         <v>44646</v>
       </c>
-      <c r="R11" s="151"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-    </row>
-    <row r="12" spans="1:26" s="87" customFormat="1">
-      <c r="A12" s="87">
+      <c r="R11" s="150"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+    </row>
+    <row r="12" spans="1:26" s="86" customFormat="1">
+      <c r="A12" s="86">
         <v>10</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C12" s="102">
         <v>526251531996</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="103">
         <v>1211</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="H12" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="128" t="s">
+      <c r="K12" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="128" t="s">
+      <c r="L12" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="128" t="s">
+      <c r="M12" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="128" t="s">
+      <c r="N12" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="137" t="s">
+      <c r="O12" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="129">
+      <c r="P12" s="128">
         <v>44646</v>
       </c>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="152" t="s">
+      <c r="Q12" s="127"/>
+      <c r="R12" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="S12" s="104" t="s">
+      <c r="S12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="T12" s="104" t="s">
+      <c r="T12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="U12" s="104" t="s">
+      <c r="U12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="104" t="s">
+      <c r="V12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="W12" s="104" t="s">
+      <c r="W12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="X12" s="104" t="s">
+      <c r="X12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="Y12" s="104" t="s">
+      <c r="Y12" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="104" t="s">
+      <c r="Z12" s="103" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="60" customFormat="1">
-      <c r="A13" s="60">
+    <row r="13" spans="1:26" s="59" customFormat="1">
+      <c r="A13" s="59">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="100">
         <v>526258372598</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="68">
         <v>1211</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="125" t="s">
+      <c r="K13" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="125" t="s">
+      <c r="L13" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="125" t="s">
+      <c r="M13" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="125" t="s">
+      <c r="N13" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="78" t="s">
+      <c r="O13" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="P13" s="126">
+      <c r="P13" s="125">
         <v>44646</v>
       </c>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-    </row>
-    <row r="14" spans="1:26" s="89" customFormat="1">
-      <c r="A14" s="89">
+      <c r="Q13" s="124"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+    </row>
+    <row r="14" spans="1:26" s="88" customFormat="1">
+      <c r="A14" s="88">
         <v>13</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>526251037317</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="109">
         <v>1312</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="110" t="s">
+      <c r="J14" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="135" t="s">
+      <c r="L14" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="135" t="s">
+      <c r="M14" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="135" t="s">
+      <c r="N14" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="138" t="s">
+      <c r="O14" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="136">
+      <c r="P14" s="135">
         <v>44646</v>
       </c>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="153" t="s">
+      <c r="Q14" s="134"/>
+      <c r="R14" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="110"/>
-      <c r="Y14" s="110"/>
-      <c r="Z14" s="110"/>
-    </row>
-    <row r="15" spans="1:26" s="90" customFormat="1" ht="48" customHeight="1">
-      <c r="A15" s="112">
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+    </row>
+    <row r="15" spans="1:26" s="89" customFormat="1" ht="48" customHeight="1">
+      <c r="A15" s="111">
         <v>14</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="113">
+      <c r="C15" s="112">
         <v>526251060168</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="114">
+      <c r="G15" s="113">
         <v>1211</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="114" t="s">
+      <c r="I15" s="113" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="139" t="s">
+      <c r="J15" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="140" t="s">
+      <c r="K15" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="140" t="s">
+      <c r="L15" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="M15" s="90" t="s">
+      <c r="M15" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="O15" s="141" t="s">
+      <c r="O15" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="142">
+      <c r="P15" s="141">
         <v>44762</v>
       </c>
-      <c r="Q15" s="140"/>
-      <c r="R15" s="154" t="s">
+      <c r="Q15" s="139"/>
+      <c r="R15" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-    </row>
-    <row r="16" spans="1:26" s="89" customFormat="1">
-      <c r="A16" s="89">
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+    </row>
+    <row r="16" spans="1:26" s="88" customFormat="1">
+      <c r="A16" s="88">
         <v>15</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <v>526251059200</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="109">
         <v>1211</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110" t="s">
+      <c r="H16" s="109"/>
+      <c r="I16" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="135" t="s">
+      <c r="K16" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="135" t="s">
+      <c r="L16" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="M16" s="135" t="s">
+      <c r="M16" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="135" t="s">
+      <c r="N16" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="138" t="s">
+      <c r="O16" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="136">
+      <c r="P16" s="135">
         <v>44647</v>
       </c>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
-      <c r="X16" s="110"/>
-      <c r="Y16" s="110"/>
-      <c r="Z16" s="110"/>
-    </row>
-    <row r="17" spans="1:26" s="91" customFormat="1">
-      <c r="A17" s="91">
+      <c r="Q16" s="134"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+    </row>
+    <row r="17" spans="1:26" s="90" customFormat="1">
+      <c r="A17" s="90">
         <v>16</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="116">
+      <c r="C17" s="115">
         <v>526251020790</v>
       </c>
-      <c r="D17" s="117" t="s">
+      <c r="D17" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="117" t="s">
+      <c r="F17" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="116">
         <v>1211</v>
       </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117" t="s">
+      <c r="H17" s="116"/>
+      <c r="I17" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="117" t="s">
+      <c r="J17" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="143" t="s">
+      <c r="K17" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="143" t="s">
+      <c r="L17" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="M17" s="143" t="s">
+      <c r="M17" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="143" t="s">
+      <c r="N17" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="144" t="s">
+      <c r="O17" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="145">
+      <c r="P17" s="144">
         <v>44647</v>
       </c>
-      <c r="R17" s="155"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="117"/>
-    </row>
-    <row r="18" spans="1:26" s="92" customFormat="1">
-      <c r="A18" s="87">
+      <c r="R17" s="154"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+    </row>
+    <row r="18" spans="1:26" s="91" customFormat="1">
+      <c r="A18" s="86">
         <v>17</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="117">
         <v>526251020642</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="104">
+      <c r="G18" s="103">
         <v>1211</v>
       </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104" t="s">
+      <c r="H18" s="103"/>
+      <c r="I18" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="146" t="s">
+      <c r="J18" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="128" t="s">
+      <c r="K18" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2899,306 +2926,306 @@
       <selection activeCell="K3" sqref="J3:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="23" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="10" style="40" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="24.453125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="14" style="40" customWidth="1"/>
-    <col min="9" max="9" width="39.453125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" style="40" customWidth="1"/>
-    <col min="12" max="12" width="22.81640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" style="40" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="40" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="40" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="40" customWidth="1"/>
-    <col min="20" max="21" width="19.1796875" style="40" customWidth="1"/>
-    <col min="22" max="22" width="60.453125" style="41" customWidth="1"/>
-    <col min="23" max="16384" width="11.453125" style="40"/>
+    <col min="1" max="1" width="5.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23" style="39" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="10" style="39" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14" style="39" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="39" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="39" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="39" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="39" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="39" customWidth="1"/>
+    <col min="20" max="21" width="19.140625" style="39" customWidth="1"/>
+    <col min="22" max="22" width="60.42578125" style="40" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="38" customFormat="1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:30" s="37" customFormat="1">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="61" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="58" customFormat="1">
-      <c r="A3" s="58">
+    <row r="3" spans="1:30" s="57" customFormat="1">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="81">
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="80">
         <v>44603</v>
       </c>
-      <c r="U3" s="58" t="s">
+      <c r="U3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="82" t="s">
+      <c r="V3" s="81" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="39" customFormat="1">
-      <c r="A4" s="39">
+    <row r="4" spans="1:30" s="38" customFormat="1">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="51">
         <v>526251020596</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="V4" s="57"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-    </row>
-    <row r="5" spans="1:30" s="59" customFormat="1">
-      <c r="A5" s="60">
+      <c r="V4" s="56"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+    </row>
+    <row r="5" spans="1:30" s="58" customFormat="1">
+      <c r="A5" s="59">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>526251020266</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="V5" s="83"/>
-    </row>
-    <row r="6" spans="1:30" s="60" customFormat="1">
-      <c r="B6" s="70" t="s">
+      <c r="V5" s="82"/>
+    </row>
+    <row r="6" spans="1:30" s="59" customFormat="1">
+      <c r="B6" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="70">
         <v>526251579804</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="K6" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="V6" s="84"/>
-    </row>
-    <row r="7" spans="1:30" s="61" customFormat="1">
-      <c r="B7" s="72" t="s">
+      <c r="V6" s="83"/>
+    </row>
+    <row r="7" spans="1:30" s="60" customFormat="1">
+      <c r="B7" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>526251531996</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="J7" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="V7" s="85"/>
+      <c r="V7" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3221,156 +3248,156 @@
       <selection activeCell="I3" sqref="I3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="20" style="40" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="40" customWidth="1"/>
-    <col min="5" max="5" width="10" style="40" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="36.54296875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" style="40" customWidth="1"/>
-    <col min="12" max="13" width="10.453125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="60.453125" style="41" customWidth="1"/>
-    <col min="15" max="16384" width="11.453125" style="40"/>
+    <col min="1" max="1" width="5.140625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="20" style="39" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="10" style="39" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="39" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="39" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="60.42578125" style="40" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="N1" s="40"/>
-    </row>
-    <row r="2" spans="1:22" s="38" customFormat="1">
-      <c r="A2" s="42" t="s">
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:22" s="37" customFormat="1">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="40">
+    <row r="3" spans="1:22" ht="30">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="44">
         <v>526251259145</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="53">
         <v>45388</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="53">
         <v>45753</v>
       </c>
-      <c r="N3" s="55"/>
-    </row>
-    <row r="4" spans="1:22" s="39" customFormat="1">
-      <c r="B4" s="48" t="s">
+      <c r="N3" s="54"/>
+    </row>
+    <row r="4" spans="1:22" s="38" customFormat="1" ht="30">
+      <c r="B4" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="48">
         <v>526251060168</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
+      <c r="K4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="39"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="56"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3390,28 +3417,28 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="6" max="6" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" customWidth="1"/>
-    <col min="9" max="9" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
@@ -3455,7 +3482,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="14.1" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>87</v>
       </c>
@@ -3471,17 +3498,17 @@
       <c r="E2" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="162">
+      <c r="H2" s="161">
         <v>45933</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+    <row r="3" spans="1:14" s="19" customFormat="1" ht="14.1" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>161</v>
       </c>
@@ -3500,40 +3527,40 @@
       <c r="F3" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="159" t="s">
+      <c r="G3" s="158" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="161">
         <v>45904</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="36">
+    <row r="4" spans="1:14" s="19" customFormat="1" ht="14.1" customHeight="1">
+      <c r="A4" s="171" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="35">
         <v>526251201079</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>32848099</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>32</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="161">
         <v>45780</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="19" customFormat="1" ht="14" customHeight="1">
+    <row r="5" spans="1:14" s="19" customFormat="1" ht="14.1" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>140</v>
       </c>
@@ -3543,18 +3570,18 @@
       <c r="E5" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="159" t="s">
+      <c r="F5" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="163" t="s">
+      <c r="H5" s="162" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="164"/>
+      <c r="H6" s="163"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
@@ -3566,10 +3593,10 @@
       <c r="F7" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="G7" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H7" s="165" t="s">
+      <c r="H7" s="164" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3580,8 +3607,8 @@
       <c r="E8" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="164"/>
-      <c r="I8" s="161" t="s">
+      <c r="H8" s="163"/>
+      <c r="I8" s="160" t="s">
         <v>233</v>
       </c>
       <c r="J8">
@@ -3598,13 +3625,13 @@
       <c r="F9" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="157" t="s">
+      <c r="G9" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="165" t="s">
+      <c r="H9" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="157" t="s">
+      <c r="I9" s="156" t="s">
         <v>209</v>
       </c>
       <c r="J9">
@@ -3621,13 +3648,13 @@
       <c r="F10" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="157" t="s">
+      <c r="G10" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="166">
+      <c r="H10" s="165">
         <v>45970</v>
       </c>
-      <c r="I10" s="157" t="s">
+      <c r="I10" s="156" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3641,11 +3668,11 @@
       <c r="F11" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="157" t="s">
+      <c r="G11" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="170" t="s">
+      <c r="H11" s="163"/>
+      <c r="I11" s="168" t="s">
         <v>234</v>
       </c>
       <c r="J11">
@@ -3662,8 +3689,8 @@
       <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="164"/>
-      <c r="I12" s="161" t="s">
+      <c r="H12" s="163"/>
+      <c r="I12" s="160" t="s">
         <v>226</v>
       </c>
       <c r="J12">
@@ -3680,11 +3707,11 @@
       <c r="F13" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="157" t="s">
+      <c r="G13" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="H13" s="164"/>
-      <c r="I13" s="157" t="s">
+      <c r="H13" s="163"/>
+      <c r="I13" s="156" t="s">
         <v>211</v>
       </c>
       <c r="J13">
@@ -3698,14 +3725,14 @@
       <c r="E14" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="157" t="s">
+      <c r="F14" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="G14" s="157" t="s">
+      <c r="G14" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="157" t="s">
+      <c r="H14" s="163"/>
+      <c r="I14" s="156" t="s">
         <v>211</v>
       </c>
       <c r="L14">
@@ -3719,14 +3746,14 @@
       <c r="E15" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="157" t="s">
+      <c r="F15" s="156" t="s">
         <v>196</v>
       </c>
-      <c r="G15" s="157" t="s">
+      <c r="G15" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="H15" s="164"/>
-      <c r="I15" s="157" t="s">
+      <c r="H15" s="163"/>
+      <c r="I15" s="156" t="s">
         <v>219</v>
       </c>
       <c r="J15">
@@ -3743,10 +3770,10 @@
       <c r="F16" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="157" t="s">
+      <c r="G16" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="164"/>
+      <c r="H16" s="163"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17">
@@ -3758,13 +3785,13 @@
       <c r="F17" t="s">
         <v>198</v>
       </c>
-      <c r="G17" s="157" t="s">
+      <c r="G17" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="165" t="s">
+      <c r="H17" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I17" s="157" t="s">
+      <c r="I17" s="156" t="s">
         <v>210</v>
       </c>
       <c r="J17">
@@ -3781,11 +3808,11 @@
       <c r="F18" t="s">
         <v>199</v>
       </c>
-      <c r="G18" s="157" t="s">
+      <c r="G18" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="157" t="s">
+      <c r="H18" s="163"/>
+      <c r="I18" s="156" t="s">
         <v>215</v>
       </c>
       <c r="K18">
@@ -3799,33 +3826,33 @@
       <c r="E19" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="164"/>
-      <c r="I19" s="164"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
       <c r="N19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="168">
+      <c r="A20" s="166">
         <v>24530094134</v>
       </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168" t="s">
+      <c r="B20" s="166"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="171" t="s">
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="169" t="s">
         <v>235</v>
       </c>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168">
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166">
         <v>1</v>
       </c>
     </row>
@@ -3839,13 +3866,13 @@
       <c r="F21" t="s">
         <v>200</v>
       </c>
-      <c r="G21" s="157" t="s">
+      <c r="G21" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I21" s="157" t="s">
+      <c r="I21" s="156" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3856,13 +3883,13 @@
       <c r="E22" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="157" t="s">
+      <c r="F22" s="156" t="s">
         <v>227</v>
       </c>
-      <c r="G22" s="157" t="s">
+      <c r="G22" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="165" t="s">
+      <c r="H22" s="164" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3873,13 +3900,13 @@
       <c r="E23" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="157" t="s">
+      <c r="F23" s="156" t="s">
         <v>228</v>
       </c>
-      <c r="G23" s="157" t="s">
+      <c r="G23" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="165" t="s">
+      <c r="H23" s="164" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3893,10 +3920,10 @@
       <c r="F24" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="157" t="s">
+      <c r="G24" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H24" s="166">
+      <c r="H24" s="165">
         <v>45912</v>
       </c>
     </row>
@@ -3910,13 +3937,13 @@
       <c r="F25" t="s">
         <v>202</v>
       </c>
-      <c r="G25" s="157" t="s">
+      <c r="G25" s="156" t="s">
         <v>208</v>
       </c>
-      <c r="H25" s="165" t="s">
+      <c r="H25" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I25" s="157" t="s">
+      <c r="I25" s="156" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3930,13 +3957,13 @@
       <c r="F26" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="157" t="s">
+      <c r="G26" s="156" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="165" t="s">
+      <c r="H26" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="157" t="s">
+      <c r="I26" s="156" t="s">
         <v>229</v>
       </c>
       <c r="J26">
@@ -3950,16 +3977,16 @@
       <c r="E27" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="157" t="s">
+      <c r="F27" s="156" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="157" t="s">
+      <c r="G27" s="156" t="s">
         <v>206</v>
       </c>
-      <c r="H27" s="165" t="s">
+      <c r="H27" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I27" s="157" t="s">
+      <c r="I27" s="156" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3973,13 +4000,13 @@
       <c r="F28" t="s">
         <v>204</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="156" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="165" t="s">
+      <c r="H28" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="I28" s="157" t="s">
+      <c r="I28" s="156" t="s">
         <v>231</v>
       </c>
       <c r="M28">
@@ -3995,70 +4022,70 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="I31" s="158" t="s">
+      <c r="I31" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="J31" s="158">
+      <c r="J31" s="157">
         <f>SUM(J2:J30)</f>
         <v>22</v>
       </c>
-      <c r="K31" s="158">
+      <c r="K31" s="157">
         <f t="shared" ref="K31:M31" si="0">SUM(K2:K30)</f>
         <v>2</v>
       </c>
-      <c r="L31" s="158">
+      <c r="L31" s="157">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M31" s="158">
+      <c r="M31" s="157">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N31" s="158">
+      <c r="N31" s="157">
         <f>SUM(N2:N30)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="I32" s="157"/>
+      <c r="I32" s="156"/>
     </row>
     <row r="33" spans="9:9">
-      <c r="I33" s="157"/>
+      <c r="I33" s="156"/>
     </row>
     <row r="35" spans="9:9">
-      <c r="I35" s="157"/>
+      <c r="I35" s="156"/>
     </row>
     <row r="36" spans="9:9">
-      <c r="I36" s="157"/>
+      <c r="I36" s="156"/>
     </row>
     <row r="38" spans="9:9">
-      <c r="I38" s="157"/>
+      <c r="I38" s="156"/>
     </row>
     <row r="39" spans="9:9">
-      <c r="I39" s="157"/>
+      <c r="I39" s="156"/>
     </row>
     <row r="40" spans="9:9">
-      <c r="I40" s="157"/>
+      <c r="I40" s="156"/>
     </row>
     <row r="42" spans="9:9">
-      <c r="I42" s="157"/>
+      <c r="I42" s="156"/>
     </row>
     <row r="44" spans="9:9">
-      <c r="I44" s="157"/>
+      <c r="I44" s="156"/>
     </row>
     <row r="45" spans="9:9">
-      <c r="I45" s="157"/>
+      <c r="I45" s="156"/>
     </row>
     <row r="47" spans="9:9">
-      <c r="I47" s="157"/>
+      <c r="I47" s="156"/>
     </row>
     <row r="48" spans="9:9">
-      <c r="I48" s="157"/>
+      <c r="I48" s="156"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="I49" s="157"/>
-    </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+      <c r="I49" s="156"/>
+    </row>
+    <row r="51" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A51" s="18" t="s">
         <v>18</v>
       </c>
@@ -4087,7 +4114,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="52" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A52" s="24" t="s">
         <v>39</v>
       </c>
@@ -4116,7 +4143,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="53" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A53" s="24" t="s">
         <v>94</v>
       </c>
@@ -4145,7 +4172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="54" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A54" s="24" t="s">
         <v>50</v>
       </c>
@@ -4174,7 +4201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A55" s="24" t="s">
         <v>30</v>
       </c>
@@ -4203,7 +4230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="56" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A56" s="24" t="s">
         <v>56</v>
       </c>
@@ -4232,7 +4259,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="57" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A57" s="24" t="s">
         <v>45</v>
       </c>
@@ -4261,7 +4288,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="58" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A58" s="24" t="s">
         <v>153</v>
       </c>
@@ -4287,7 +4314,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="59" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>118</v>
       </c>
@@ -4307,7 +4334,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" ht="14" customHeight="1">
+    <row r="60" spans="1:9" s="18" customFormat="1" ht="14.1" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>147</v>
       </c>
@@ -4330,7 +4357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1">
+    <row r="62" spans="1:9" s="20" customFormat="1" ht="14.1" customHeight="1">
       <c r="A62" s="29" t="s">
         <v>110</v>
       </c>
@@ -4353,7 +4380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1">
+    <row r="63" spans="1:9" s="20" customFormat="1" ht="14.1" customHeight="1">
       <c r="A63" s="29" t="s">
         <v>99</v>
       </c>
@@ -4376,7 +4403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1">
+    <row r="64" spans="1:9" s="20" customFormat="1" ht="14.1" customHeight="1">
       <c r="A64" s="29" t="s">
         <v>80</v>
       </c>
@@ -4395,7 +4422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="21" customFormat="1" ht="14" customHeight="1">
+    <row r="65" spans="1:9" s="21" customFormat="1" ht="14.1" customHeight="1">
       <c r="A65" s="32" t="s">
         <v>61</v>
       </c>
@@ -4421,7 +4448,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="21" customFormat="1" ht="14" customHeight="1">
+    <row r="66" spans="1:9" s="21" customFormat="1" ht="14.1" customHeight="1">
       <c r="A66" s="21" t="s">
         <v>122</v>
       </c>
@@ -4456,13 +4483,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4485,7 +4512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>188</v>
       </c>
@@ -4505,7 +4532,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>188</v>
       </c>
@@ -4525,7 +4552,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>188</v>
       </c>
@@ -4545,7 +4572,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>188</v>
       </c>
@@ -4565,7 +4592,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>188</v>
       </c>
@@ -4585,7 +4612,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
         <v>188</v>
       </c>
@@ -4605,7 +4632,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>188</v>
       </c>
@@ -4625,7 +4652,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
         <v>189</v>
       </c>
@@ -4643,7 +4670,7 @@
         <v>44384</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>188</v>
       </c>
@@ -4663,7 +4690,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
         <v>188</v>
       </c>
@@ -4683,7 +4710,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>188</v>
       </c>
@@ -4703,7 +4730,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
         <v>188</v>
       </c>
@@ -4723,7 +4750,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>188</v>
       </c>
@@ -4743,7 +4770,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
         <v>188</v>
       </c>
@@ -4763,7 +4790,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>188</v>
       </c>
@@ -4783,7 +4810,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
         <v>188</v>
       </c>
@@ -4799,7 +4826,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>189</v>
       </c>
@@ -4815,7 +4842,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
         <v>188</v>
       </c>
@@ -4831,7 +4858,7 @@
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>189</v>
       </c>
@@ -4845,7 +4872,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
         <v>189</v>
       </c>

--- a/Documentación/Empresa/Control de equipos.xlsx
+++ b/Documentación/Empresa/Control de equipos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DTA-Agrícola\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AC53E4-59D8-4EED-B785-631633911766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D4CD6-4F2C-453E-B0EE-C29F71FF93DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6705" yWindow="2655" windowWidth="20730" windowHeight="11160" tabRatio="577" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Movimiento contínuo" sheetId="8" r:id="rId1"/>
@@ -1531,11 +1531,11 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1846,17 +1846,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="R1" s="170" t="s">
+      <c r="R1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
     </row>
     <row r="2" spans="1:26" s="37" customFormat="1">
       <c r="A2" s="37" t="s">
@@ -3414,10 +3414,10 @@
   <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>236</v>
       </c>
       <c r="B4" s="35">
@@ -3609,10 +3609,10 @@
       </c>
       <c r="H8" s="163"/>
       <c r="I8" s="160" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3691,10 +3691,10 @@
       </c>
       <c r="H12" s="163"/>
       <c r="I12" s="160" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
